--- a/export_normal_data.xlsx
+++ b/export_normal_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,2413 +456,2653 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>euas</t>
+          <t>churn</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gbpusd</t>
+          <t>eurgbp</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.520291726488908</v>
+        <v>4.054875552455332</v>
       </c>
       <c r="B2" t="n">
-        <v>53.23356495709276</v>
+        <v>66.78590658778688</v>
       </c>
       <c r="C2" t="n">
-        <v>53.71270870638044</v>
+        <v>81.99471540253569</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03960457336650336</v>
+        <v>0.240092658052264</v>
       </c>
       <c r="E2" t="n">
-        <v>2.413142083558689</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>1.645793</v>
+        <v>0.8443000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.64592450464354</v>
+        <v>4.085793614094878</v>
       </c>
       <c r="B3" t="n">
-        <v>52.2886737030583</v>
+        <v>70.02226048977613</v>
       </c>
       <c r="C3" t="n">
-        <v>58.70713297845387</v>
+        <v>81.11429423299849</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.167192357537262</v>
+        <v>-0.01433697509426324</v>
       </c>
       <c r="E3" t="n">
-        <v>2.364808436174178</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>1.618202</v>
+        <v>0.8574000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.787755437029858</v>
+        <v>4.241030199606556</v>
       </c>
       <c r="B4" t="n">
-        <v>54.30279747181174</v>
+        <v>77.35339885537779</v>
       </c>
       <c r="C4" t="n">
-        <v>61.09688516915146</v>
+        <v>85.96321540627295</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1225153556619603</v>
+        <v>-0.1702179967001598</v>
       </c>
       <c r="E4" t="n">
-        <v>2.390824881843454</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>1.597597</v>
+        <v>0.8829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.57045845990322</v>
+        <v>4.128967122387459</v>
       </c>
       <c r="B5" t="n">
-        <v>55.08170353107703</v>
+        <v>79.43126728023159</v>
       </c>
       <c r="C5" t="n">
-        <v>56.46341406033116</v>
+        <v>82.77580952576463</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2290849901401906</v>
+        <v>-0.3496965197916033</v>
       </c>
       <c r="E5" t="n">
-        <v>2.402430427963762</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>1.51805</v>
+        <v>0.89142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.511393986147074</v>
+        <v>4.13456680519287</v>
       </c>
       <c r="B6" t="n">
-        <v>58.5315089346377</v>
+        <v>74.67088132091169</v>
       </c>
       <c r="C6" t="n">
-        <v>55.98472375582498</v>
+        <v>79.32035962561409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1114846426051432</v>
+        <v>-0.1932449840538144</v>
       </c>
       <c r="E6" t="n">
-        <v>2.388487521994749</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>1.518372</v>
+        <v>0.88512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.614728362713932</v>
+        <v>4.11747616655528</v>
       </c>
       <c r="B7" t="n">
-        <v>62.14967480538029</v>
+        <v>75.89275812300465</v>
       </c>
       <c r="C7" t="n">
-        <v>61.32902359361389</v>
+        <v>81.77323011320847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1175207018013413</v>
+        <v>-0.05882775957014807</v>
       </c>
       <c r="E7" t="n">
-        <v>2.606939899733079</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>1.530011</v>
+        <v>0.90324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.712917080599346</v>
+        <v>4.025007120583</v>
       </c>
       <c r="B8" t="n">
-        <v>58.50103206835246</v>
+        <v>76.59214436983139</v>
       </c>
       <c r="C8" t="n">
-        <v>69.09206815709304</v>
+        <v>81.0971794494624</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25281503878597</v>
+        <v>0.1489337928980277</v>
       </c>
       <c r="E8" t="n">
-        <v>2.555481602457603</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>1.452201</v>
+        <v>0.87573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.928424082289194</v>
+        <v>4.284394999048672</v>
       </c>
       <c r="B9" t="n">
-        <v>55.89459430900097</v>
+        <v>72.05543079552646</v>
       </c>
       <c r="C9" t="n">
-        <v>70.57851394823022</v>
+        <v>82.24072939645463</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09413847953928567</v>
+        <v>0.268200147361382</v>
       </c>
       <c r="E9" t="n">
-        <v>2.561404620760726</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>1.494433</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.818413506305839</v>
+        <v>4.254831060498445</v>
       </c>
       <c r="B10" t="n">
-        <v>53.91487641533656</v>
+        <v>76.62040108231386</v>
       </c>
       <c r="C10" t="n">
-        <v>66.16306943004058</v>
+        <v>83.2210418562223</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01106717743034658</v>
+        <v>0.2226837887987578</v>
       </c>
       <c r="E10" t="n">
-        <v>2.485781267198661</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>1.569809</v>
+        <v>0.87071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.841198996134044</v>
+        <v>4.258123720225939</v>
       </c>
       <c r="B11" t="n">
-        <v>55.47051684355981</v>
+        <v>71.95058920866214</v>
       </c>
       <c r="C11" t="n">
-        <v>65.70203351473042</v>
+        <v>77.50040645022484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06156252936436424</v>
+        <v>0.1794666687425721</v>
       </c>
       <c r="E11" t="n">
-        <v>2.828200802232672</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>1.546599</v>
+        <v>0.8618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.964518249790124</v>
+        <v>4.151189717386139</v>
       </c>
       <c r="B12" t="n">
-        <v>54.87634013659</v>
+        <v>75.06949519380044</v>
       </c>
       <c r="C12" t="n">
-        <v>67.9397854440285</v>
+        <v>75.97084419269683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09768482389605104</v>
+        <v>-0.1758907745651506</v>
       </c>
       <c r="E12" t="n">
-        <v>2.840188957792641</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>1.579579</v>
+        <v>0.85856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.968403338864254</v>
+        <v>4.044949588483501</v>
       </c>
       <c r="B13" t="n">
-        <v>58.23180979703181</v>
+        <v>73.57846340491396</v>
       </c>
       <c r="C13" t="n">
-        <v>69.66403760646483</v>
+        <v>75.16776367128504</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03123955953804369</v>
+        <v>-0.04907965410029824</v>
       </c>
       <c r="E13" t="n">
-        <v>2.78978378612888</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>1.577412</v>
+        <v>0.83427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.094713634010752</v>
+        <v>4.085318751014788</v>
       </c>
       <c r="B14" t="n">
-        <v>60.70935854260402</v>
+        <v>74.48758894710774</v>
       </c>
       <c r="C14" t="n">
-        <v>81.40378927470415</v>
+        <v>69.2117492385042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05925314799968184</v>
+        <v>-0.2719482478689699</v>
       </c>
       <c r="E14" t="n">
-        <v>2.789261456527033</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>1.555621</v>
+        <v>0.8307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.204136036142849</v>
+        <v>4.13419868577236</v>
       </c>
       <c r="B15" t="n">
-        <v>64.95658045035502</v>
+        <v>78.80796991808715</v>
       </c>
       <c r="C15" t="n">
-        <v>88.32532289777633</v>
+        <v>64.49005499456308</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0933326905432903</v>
+        <v>0.07658388287395468</v>
       </c>
       <c r="E15" t="n">
-        <v>2.831211341385543</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>1.54371</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.054875552455332</v>
+        <v>4.166128782346322</v>
       </c>
       <c r="B16" t="n">
-        <v>66.78590658778688</v>
+        <v>82.10007534659971</v>
       </c>
       <c r="C16" t="n">
-        <v>81.99471540253569</v>
+        <v>64.79001561828116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2579084386174326</v>
+        <v>0.1057685596051172</v>
       </c>
       <c r="E16" t="n">
-        <v>2.873875325775106</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>1.58293</v>
+        <v>0.8347</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.085793614094878</v>
+        <v>4.099021110106002</v>
       </c>
       <c r="B17" t="n">
-        <v>70.02226048977613</v>
+        <v>76.61505953031711</v>
       </c>
       <c r="C17" t="n">
-        <v>81.11429423299849</v>
+        <v>58.31701608508064</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00409842429919216</v>
+        <v>-0.05142801839129696</v>
       </c>
       <c r="E17" t="n">
-        <v>2.914793331048639</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>1.610047</v>
+        <v>0.8047</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.241030199606556</v>
+        <v>4.030477811688558</v>
       </c>
       <c r="B18" t="n">
-        <v>77.35339885537779</v>
+        <v>74.31210083305379</v>
       </c>
       <c r="C18" t="n">
-        <v>85.96321540627295</v>
+        <v>59.5358864749135</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1662659334161436</v>
+        <v>-0.1225314705212508</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04549815203555</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>1.607407</v>
+        <v>0.8085</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.128967122387459</v>
+        <v>4.063687425793237</v>
       </c>
       <c r="B19" t="n">
-        <v>79.43126728023159</v>
+        <v>63.43933875062576</v>
       </c>
       <c r="C19" t="n">
-        <v>82.77580952576463</v>
+        <v>57.799397537613</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3508585420922383</v>
+        <v>0.06809333156113695</v>
       </c>
       <c r="E19" t="n">
-        <v>3.066307226223594</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>1.665002</v>
+        <v>0.8069</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.13456680519287</v>
+        <v>4.046678243289417</v>
       </c>
       <c r="B20" t="n">
-        <v>74.67088132091169</v>
+        <v>68.31313690700074</v>
       </c>
       <c r="C20" t="n">
-        <v>79.32035962561409</v>
+        <v>62.77459374712696</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1984695003848884</v>
+        <v>0.005529029175404432</v>
       </c>
       <c r="E20" t="n">
-        <v>3.018447322297205</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>1.648777</v>
+        <v>0.79236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.11747616655528</v>
+        <v>4.11579172554544</v>
       </c>
       <c r="B21" t="n">
-        <v>75.89275812300465</v>
+        <v>74.70433313620795</v>
       </c>
       <c r="C21" t="n">
-        <v>81.77323011320847</v>
+        <v>61.88017714793514</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06718326248569895</v>
+        <v>0.2182580996685086</v>
       </c>
       <c r="E21" t="n">
-        <v>2.846129569322763</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>1.607588</v>
+        <v>0.7925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.025007120583</v>
+        <v>4.163889958068713</v>
       </c>
       <c r="B22" t="n">
-        <v>76.59214436983139</v>
+        <v>72.43856548867691</v>
       </c>
       <c r="C22" t="n">
-        <v>81.0971794494624</v>
+        <v>57.44507895832521</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1382619920584105</v>
+        <v>0.1442390762409307</v>
       </c>
       <c r="E22" t="n">
-        <v>2.730626755281115</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>1.636849</v>
+        <v>0.7953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.284394999048672</v>
+        <v>4.225252241003615</v>
       </c>
       <c r="B23" t="n">
-        <v>72.05543079552646</v>
+        <v>71.64409695899444</v>
       </c>
       <c r="C23" t="n">
-        <v>82.24072939645463</v>
+        <v>54.83457425471332</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2559151406618696</v>
+        <v>0.3115147644458247</v>
       </c>
       <c r="E23" t="n">
-        <v>2.781393595326419</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>1.630763</v>
+        <v>0.8005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.254831060498445</v>
+        <v>4.242894637874261</v>
       </c>
       <c r="B24" t="n">
-        <v>76.62040108231386</v>
+        <v>69.94648492309739</v>
       </c>
       <c r="C24" t="n">
-        <v>83.2210418562223</v>
+        <v>57.40152577129301</v>
       </c>
       <c r="D24" t="n">
-        <v>0.209383741582803</v>
+        <v>-0.02937540468635191</v>
       </c>
       <c r="E24" t="n">
-        <v>2.625573979277972</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>1.559941</v>
+        <v>0.81096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.258123720225939</v>
+        <v>4.191112943113195</v>
       </c>
       <c r="B25" t="n">
-        <v>71.95058920866214</v>
+        <v>69.40724636957945</v>
       </c>
       <c r="C25" t="n">
-        <v>77.50040645022484</v>
+        <v>57.02056636171042</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1656524977620997</v>
+        <v>-0.02868685131925908</v>
       </c>
       <c r="E25" t="n">
-        <v>2.582827056348132</v>
+        <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>1.611188</v>
+        <v>0.8133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.151189717386139</v>
+        <v>4.202892577365512</v>
       </c>
       <c r="B26" t="n">
-        <v>75.06949519380044</v>
+        <v>73.63920942235535</v>
       </c>
       <c r="C26" t="n">
-        <v>75.97084419269683</v>
+        <v>56.09644095957577</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1898070886202401</v>
+        <v>0.2450113413740826</v>
       </c>
       <c r="E26" t="n">
-        <v>2.419211904925765</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>1.559795</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.044949588483501</v>
+        <v>4.231851511504509</v>
       </c>
       <c r="B27" t="n">
-        <v>73.57846340491396</v>
+        <v>78.2328988747999</v>
       </c>
       <c r="C27" t="n">
-        <v>75.16776367128504</v>
+        <v>61.07626573077873</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06276643274525462</v>
+        <v>-0.1723684836618453</v>
       </c>
       <c r="E27" t="n">
-        <v>1.779096295274657</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>1.541592</v>
+        <v>0.8657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.085318751014788</v>
+        <v>4.235007279176584</v>
       </c>
       <c r="B28" t="n">
-        <v>74.48758894710774</v>
+        <v>72.75781123873766</v>
       </c>
       <c r="C28" t="n">
-        <v>69.2117492385042</v>
+        <v>57.28327721755505</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2851454171279162</v>
+        <v>-0.153763039576976</v>
       </c>
       <c r="E28" t="n">
-        <v>1.896719904864542</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>1.570845</v>
+        <v>0.8426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.13419868577236</v>
+        <v>4.174934893613606</v>
       </c>
       <c r="B29" t="n">
-        <v>78.80796991808715</v>
+        <v>67.13340563444639</v>
       </c>
       <c r="C29" t="n">
-        <v>64.49005499456308</v>
+        <v>55.11833156979731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06407334670468146</v>
+        <v>0.03565528097016823</v>
       </c>
       <c r="E29" t="n">
-        <v>1.95854428687288</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>1.592205</v>
+        <v>0.84239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.166128782346322</v>
+        <v>4.191498910368359</v>
       </c>
       <c r="B30" t="n">
-        <v>82.10007534659971</v>
+        <v>68.37053355998405</v>
       </c>
       <c r="C30" t="n">
-        <v>64.79001561828116</v>
+        <v>54.69776012672281</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09408687818776329</v>
+        <v>-0.005595665559473773</v>
       </c>
       <c r="E30" t="n">
-        <v>1.780529987276506</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
-        <v>1.601691</v>
+        <v>0.8549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.099021110106002</v>
+        <v>4.191841073710729</v>
       </c>
       <c r="B31" t="n">
-        <v>76.61505953031711</v>
+        <v>68.86216718763887</v>
       </c>
       <c r="C31" t="n">
-        <v>58.31701608508064</v>
+        <v>49.88024255575668</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06218560635080905</v>
+        <v>-0.2587038944777547</v>
       </c>
       <c r="E31" t="n">
-        <v>1.849713862488611</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>1.628134</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.030477811688558</v>
+        <v>4.210883464935106</v>
       </c>
       <c r="B32" t="n">
-        <v>74.31210083305379</v>
+        <v>72.03533201619136</v>
       </c>
       <c r="C32" t="n">
-        <v>59.5358864749135</v>
+        <v>50.95800610985093</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1323094082224276</v>
+        <v>-0.1447795245176131</v>
       </c>
       <c r="E32" t="n">
-        <v>1.673257425147054</v>
+        <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>1.548299</v>
+        <v>0.8686</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.063687425793237</v>
+        <v>4.190391322485103</v>
       </c>
       <c r="B33" t="n">
-        <v>63.43933875062576</v>
+        <v>72.68715094960429</v>
       </c>
       <c r="C33" t="n">
-        <v>57.799397537613</v>
+        <v>49.38127796360607</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05931764250581573</v>
+        <v>0.1959730191347067</v>
       </c>
       <c r="E33" t="n">
-        <v>1.941615224772432</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>1.570697</v>
+        <v>0.8508</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.046678243289417</v>
+        <v>4.226045319610138</v>
       </c>
       <c r="B34" t="n">
-        <v>68.31313690700074</v>
+        <v>69.64809773760992</v>
       </c>
       <c r="C34" t="n">
-        <v>62.77459374712696</v>
+        <v>51.54957771618798</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.002248660048422835</v>
+        <v>-0.1565299740173085</v>
       </c>
       <c r="E34" t="n">
-        <v>1.766099722447477</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>1.571339</v>
+        <v>0.8460299999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.11579172554544</v>
+        <v>4.257535986701508</v>
       </c>
       <c r="B35" t="n">
-        <v>74.70433313620795</v>
+        <v>68.68189535321549</v>
       </c>
       <c r="C35" t="n">
-        <v>61.88017714793514</v>
+        <v>52.73293670546202</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2114527990655777</v>
+        <v>0.00625481448972387</v>
       </c>
       <c r="E35" t="n">
-        <v>1.920665598460895</v>
+        <v>22</v>
       </c>
       <c r="F35" t="n">
-        <v>1.579031</v>
+        <v>0.8473000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.163889958068713</v>
+        <v>4.278987571105358</v>
       </c>
       <c r="B36" t="n">
-        <v>72.43856548867691</v>
+        <v>66.38105041935826</v>
       </c>
       <c r="C36" t="n">
-        <v>57.44507895832521</v>
+        <v>51.9766272881885</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1383640517078337</v>
+        <v>-0.01834717561759192</v>
       </c>
       <c r="E36" t="n">
-        <v>1.908134106148982</v>
+        <v>16</v>
       </c>
       <c r="F36" t="n">
-        <v>1.614518</v>
+        <v>0.82933</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.225252241003615</v>
+        <v>4.236809326766656</v>
       </c>
       <c r="B37" t="n">
-        <v>71.64409695899444</v>
+        <v>67.41679919704036</v>
       </c>
       <c r="C37" t="n">
-        <v>54.83457425471332</v>
+        <v>49.63741399890431</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3065156554039188</v>
+        <v>-0.01860692254424734</v>
       </c>
       <c r="E37" t="n">
-        <v>1.945267085191204</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>1.607459</v>
+        <v>0.8283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.242894637874261</v>
+        <v>4.122889480711766</v>
       </c>
       <c r="B38" t="n">
-        <v>69.94648492309739</v>
+        <v>66.19566358158875</v>
       </c>
       <c r="C38" t="n">
-        <v>57.40152577129301</v>
+        <v>50.93857944865135</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03356153495295366</v>
+        <v>0.07415027536989172</v>
       </c>
       <c r="E38" t="n">
-        <v>1.662030362553271</v>
+        <v>23</v>
       </c>
       <c r="F38" t="n">
-        <v>1.604107</v>
+        <v>0.8207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.191112943113195</v>
+        <v>4.033039223007997</v>
       </c>
       <c r="B39" t="n">
-        <v>69.40724636957945</v>
+        <v>65.56875588210897</v>
       </c>
       <c r="C39" t="n">
-        <v>57.02056636171042</v>
+        <v>46.42195664380716</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03212839122052991</v>
+        <v>-0.1387884253266609</v>
       </c>
       <c r="E39" t="n">
-        <v>1.701561201309906</v>
+        <v>25</v>
       </c>
       <c r="F39" t="n">
-        <v>1.616292</v>
+        <v>0.82334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.202892577365512</v>
+        <v>3.940110294815908</v>
       </c>
       <c r="B40" t="n">
-        <v>73.63920942235535</v>
+        <v>64.77044484153498</v>
       </c>
       <c r="C40" t="n">
-        <v>56.09644095957577</v>
+        <v>46.73379230983473</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2422431680654977</v>
+        <v>-0.2350380174873568</v>
       </c>
       <c r="E40" t="n">
-        <v>1.034429259891197</v>
+        <v>26</v>
       </c>
       <c r="F40" t="n">
-        <v>1.579779</v>
+        <v>0.8260999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.231851511504509</v>
+        <v>3.833494302585825</v>
       </c>
       <c r="B41" t="n">
-        <v>78.2328988747999</v>
+        <v>63.98641701849868</v>
       </c>
       <c r="C41" t="n">
-        <v>61.07626573077873</v>
+        <v>44.56366552745292</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1745351985506094</v>
+        <v>-0.344673879871646</v>
       </c>
       <c r="E41" t="n">
-        <v>1.40609698841607</v>
+        <v>27</v>
       </c>
       <c r="F41" t="n">
-        <v>1.51676</v>
+        <v>0.82201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.235007279176584</v>
+        <v>3.78736640082859</v>
       </c>
       <c r="B42" t="n">
-        <v>72.75781123873766</v>
+        <v>65.36142709163727</v>
       </c>
       <c r="C42" t="n">
-        <v>57.28327721755505</v>
+        <v>44.60258056508933</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1553991585106917</v>
+        <v>-0.0007356401026221704</v>
       </c>
       <c r="E42" t="n">
-        <v>1.39351820620921</v>
+        <v>21</v>
       </c>
       <c r="F42" t="n">
-        <v>1.519711</v>
+        <v>0.8133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.174934893613606</v>
+        <v>3.676831115597762</v>
       </c>
       <c r="B43" t="n">
-        <v>67.13340563444639</v>
+        <v>65.50231877446807</v>
       </c>
       <c r="C43" t="n">
-        <v>55.11833156979731</v>
+        <v>42.88702803480378</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03448129543162359</v>
+        <v>-0.1159620765876213</v>
       </c>
       <c r="E43" t="n">
-        <v>2.021481335902387</v>
+        <v>27</v>
       </c>
       <c r="F43" t="n">
-        <v>1.549427</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.191498910368359</v>
+        <v>3.726934862398531</v>
       </c>
       <c r="B44" t="n">
-        <v>68.37053355998405</v>
+        <v>63.20272172123453</v>
       </c>
       <c r="C44" t="n">
-        <v>54.69776012672281</v>
+        <v>45.16594237454524</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.00637255778349477</v>
+        <v>0.05460281596949379</v>
       </c>
       <c r="E44" t="n">
-        <v>2.111848226598744</v>
+        <v>30</v>
       </c>
       <c r="F44" t="n">
-        <v>1.522905</v>
+        <v>0.79808</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.191841073710729</v>
+        <v>3.931786494546986</v>
       </c>
       <c r="B45" t="n">
-        <v>68.86216718763887</v>
+        <v>61.1221727746792</v>
       </c>
       <c r="C45" t="n">
-        <v>49.88024255575668</v>
+        <v>46.28827079039036</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2591445772477012</v>
+        <v>0.05046191259842914</v>
       </c>
       <c r="E45" t="n">
-        <v>2.139242294797872</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>1.520427</v>
+        <v>0.7916</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.210883464935106</v>
+        <v>4.018599132877639</v>
       </c>
       <c r="B46" t="n">
-        <v>72.03533201619136</v>
+        <v>59.59759219589143</v>
       </c>
       <c r="C46" t="n">
-        <v>50.95800610985093</v>
+        <v>44.31914879537914</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1449402399160995</v>
+        <v>0.1234692629331953</v>
       </c>
       <c r="E46" t="n">
-        <v>2.152169097211075</v>
+        <v>30</v>
       </c>
       <c r="F46" t="n">
-        <v>1.524204</v>
+        <v>0.7837</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.190391322485103</v>
+        <v>3.986287482124376</v>
       </c>
       <c r="B47" t="n">
-        <v>72.68715094960429</v>
+        <v>54.422576377489</v>
       </c>
       <c r="C47" t="n">
-        <v>49.38127796360607</v>
+        <v>45.34695972892684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.196040946229644</v>
+        <v>0.11514759025515</v>
       </c>
       <c r="E47" t="n">
-        <v>2.175603631233256</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>1.551109</v>
+        <v>0.7827</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.226045319610138</v>
+        <v>4.0640878808219</v>
       </c>
       <c r="B48" t="n">
-        <v>69.64809773760992</v>
+        <v>50.82968373292814</v>
       </c>
       <c r="C48" t="n">
-        <v>51.54957771618798</v>
+        <v>47.28491475155325</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1562797116552925</v>
+        <v>0.06284494643602656</v>
       </c>
       <c r="E48" t="n">
-        <v>2.219964064305709</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>1.616893</v>
+        <v>0.7965</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.257535986701508</v>
+        <v>3.907216266752108</v>
       </c>
       <c r="B49" t="n">
-        <v>68.68189535321549</v>
+        <v>40.00097775890134</v>
       </c>
       <c r="C49" t="n">
-        <v>52.73293670546202</v>
+        <v>42.83069081499301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006646080089744544</v>
+        <v>0.2456255399324441</v>
       </c>
       <c r="E49" t="n">
-        <v>2.199444334074532</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>1.602615</v>
+        <v>0.78148</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.278987571105358</v>
+        <v>3.832617892366723</v>
       </c>
       <c r="B50" t="n">
-        <v>66.38105041935826</v>
+        <v>31.91551210163247</v>
       </c>
       <c r="C50" t="n">
-        <v>51.9766272881885</v>
+        <v>39.29296716030127</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01785142002533924</v>
+        <v>0.1914023492020362</v>
       </c>
       <c r="E50" t="n">
-        <v>2.15709678624544</v>
+        <v>22</v>
       </c>
       <c r="F50" t="n">
-        <v>1.636902</v>
+        <v>0.7495000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.236809326766656</v>
+        <v>3.917635367323658</v>
       </c>
       <c r="B51" t="n">
-        <v>67.41679919704036</v>
+        <v>37.82340373233341</v>
       </c>
       <c r="C51" t="n">
-        <v>49.63741399890431</v>
+        <v>40.23212307501212</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.01803861596322065</v>
+        <v>-0.04560715190103082</v>
       </c>
       <c r="E51" t="n">
-        <v>2.202267396479179</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>1.649512</v>
+        <v>0.7243000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.122889480711766</v>
+        <v>3.829251737427041</v>
       </c>
       <c r="B52" t="n">
-        <v>66.19566358158875</v>
+        <v>37.85384437253198</v>
       </c>
       <c r="C52" t="n">
-        <v>50.93857944865135</v>
+        <v>39.85862840085001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07476345833131148</v>
+        <v>-0.3179010382340781</v>
       </c>
       <c r="E52" t="n">
-        <v>2.263324379040743</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
-        <v>1.649838</v>
+        <v>0.7367</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.033039223007997</v>
+        <v>3.737240525807357</v>
       </c>
       <c r="B53" t="n">
-        <v>65.56875588210897</v>
+        <v>38.62067820643966</v>
       </c>
       <c r="C53" t="n">
-        <v>46.42195664380716</v>
+        <v>38.80236150445383</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1381541313897809</v>
+        <v>0.01445579546743936</v>
       </c>
       <c r="E53" t="n">
-        <v>2.392517200494653</v>
+        <v>21</v>
       </c>
       <c r="F53" t="n">
-        <v>1.669198</v>
+        <v>0.7383999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.940110294815908</v>
+        <v>3.73404763462586</v>
       </c>
       <c r="B54" t="n">
-        <v>64.77044484153498</v>
+        <v>41.7883452787592</v>
       </c>
       <c r="C54" t="n">
-        <v>46.73379230983473</v>
+        <v>38.3777172230802</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.2344028520158385</v>
+        <v>-0.02293362961627032</v>
       </c>
       <c r="E54" t="n">
-        <v>2.184251906032181</v>
+        <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>1.664392</v>
+        <v>0.7154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.833494302585825</v>
+        <v>3.738762073328252</v>
       </c>
       <c r="B55" t="n">
-        <v>63.98641701849868</v>
+        <v>39.0017533952552</v>
       </c>
       <c r="C55" t="n">
-        <v>44.56366552745292</v>
+        <v>38.18974551714969</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3440549527759202</v>
+        <v>-0.1125364678379661</v>
       </c>
       <c r="E55" t="n">
-        <v>2.649007660468427</v>
+        <v>27</v>
       </c>
       <c r="F55" t="n">
-        <v>1.682425</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.78736640082859</v>
+        <v>3.745968421098063</v>
       </c>
       <c r="B56" t="n">
-        <v>65.36142709163727</v>
+        <v>36.24646571325303</v>
       </c>
       <c r="C56" t="n">
-        <v>44.60258056508933</v>
+        <v>37.45767186951273</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0001473287411446478</v>
+        <v>-0.02799454924903699</v>
       </c>
       <c r="E56" t="n">
-        <v>2.627743569714985</v>
+        <v>26</v>
       </c>
       <c r="F56" t="n">
-        <v>1.675912</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.676831115597762</v>
+        <v>3.707645436915651</v>
       </c>
       <c r="B57" t="n">
-        <v>65.50231877446807</v>
+        <v>30.08216171666011</v>
       </c>
       <c r="C57" t="n">
-        <v>42.88702803480378</v>
+        <v>36.08307445807468</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1154164125963124</v>
+        <v>0.1599679284794195</v>
       </c>
       <c r="E57" t="n">
-        <v>2.673355231305323</v>
+        <v>22</v>
       </c>
       <c r="F57" t="n">
-        <v>1.703403</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.726934862398531</v>
+        <v>3.728503126142083</v>
       </c>
       <c r="B58" t="n">
-        <v>63.20272172123453</v>
+        <v>31.35315138247612</v>
       </c>
       <c r="C58" t="n">
-        <v>45.16594237454524</v>
+        <v>33.84191476394945</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0550957789826505</v>
+        <v>0.155506560116093</v>
       </c>
       <c r="E58" t="n">
-        <v>2.695403906067887</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>1.691017</v>
+        <v>0.7393</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.931786494546986</v>
+        <v>3.672038538312085</v>
       </c>
       <c r="B59" t="n">
-        <v>61.1221727746792</v>
+        <v>31.2950577265546</v>
       </c>
       <c r="C59" t="n">
-        <v>46.28827079039036</v>
+        <v>33.89274783724528</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05089375801338392</v>
+        <v>0.1821127853816265</v>
       </c>
       <c r="E59" t="n">
-        <v>2.706248579155582</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>1.65909</v>
+        <v>0.713827</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.018599132877639</v>
+        <v>3.651551266053632</v>
       </c>
       <c r="B60" t="n">
-        <v>59.59759219589143</v>
+        <v>29.34884898100276</v>
       </c>
       <c r="C60" t="n">
-        <v>44.31914879537914</v>
+        <v>33.11441171450391</v>
       </c>
       <c r="D60" t="n">
-        <v>0.123832903015952</v>
+        <v>0.1446902174864864</v>
       </c>
       <c r="E60" t="n">
-        <v>2.67394173146876</v>
+        <v>23</v>
       </c>
       <c r="F60" t="n">
-        <v>1.62422</v>
+        <v>0.720825</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.986287482124376</v>
+        <v>3.497443707332006</v>
       </c>
       <c r="B61" t="n">
-        <v>54.422576377489</v>
+        <v>25.57242327141568</v>
       </c>
       <c r="C61" t="n">
-        <v>45.34695972892684</v>
+        <v>31.92348024805773</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1154369962543829</v>
+        <v>0.07752324837036539</v>
       </c>
       <c r="E61" t="n">
-        <v>2.70397524306018</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>1.600102</v>
+        <v>0.7364000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.0640878808219</v>
+        <v>3.425685699986357</v>
       </c>
       <c r="B62" t="n">
-        <v>50.82968373292814</v>
+        <v>21.65815413612348</v>
       </c>
       <c r="C62" t="n">
-        <v>47.28491475155325</v>
+        <v>32.27558800415795</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06305492130802826</v>
+        <v>0.01592277457816138</v>
       </c>
       <c r="E62" t="n">
-        <v>2.743578207161355</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>1.561305</v>
+        <v>0.7599</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.907216266752108</v>
+        <v>3.380953775385509</v>
       </c>
       <c r="B63" t="n">
-        <v>40.00097775890134</v>
+        <v>23.26116617007137</v>
       </c>
       <c r="C63" t="n">
-        <v>42.83069081499301</v>
+        <v>32.02205286930273</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2457515374623753</v>
+        <v>0.2081089488712102</v>
       </c>
       <c r="E63" t="n">
-        <v>2.754456573916366</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
-        <v>1.556905</v>
+        <v>0.77345</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.832617892366723</v>
+        <v>3.330920538246188</v>
       </c>
       <c r="B64" t="n">
-        <v>31.91551210163247</v>
+        <v>26.52964102218528</v>
       </c>
       <c r="C64" t="n">
-        <v>39.29296716030127</v>
+        <v>31.20930028650166</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1914403427696243</v>
+        <v>-0.0826497265443944</v>
       </c>
       <c r="E64" t="n">
-        <v>2.745217525443649</v>
+        <v>19</v>
       </c>
       <c r="F64" t="n">
-        <v>1.507</v>
+        <v>0.80071</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.917635367323658</v>
+        <v>3.351758304399346</v>
       </c>
       <c r="B65" t="n">
-        <v>37.82340373233341</v>
+        <v>28.38935629367245</v>
       </c>
       <c r="C65" t="n">
-        <v>40.23212307501212</v>
+        <v>31.23648509945922</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.04566074806994891</v>
+        <v>-0.01122240099655869</v>
       </c>
       <c r="E65" t="n">
-        <v>2.746308913219301</v>
+        <v>23</v>
       </c>
       <c r="F65" t="n">
-        <v>1.543805</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.829251737427041</v>
+        <v>3.471075208959073</v>
       </c>
       <c r="B66" t="n">
-        <v>37.85384437253198</v>
+        <v>31.8097452629593</v>
       </c>
       <c r="C66" t="n">
-        <v>39.85862840085001</v>
+        <v>34.8110498545222</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.3180493928135508</v>
+        <v>0.07069157694812667</v>
       </c>
       <c r="E66" t="n">
-        <v>2.736443275603428</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>1.480911</v>
+        <v>0.7889</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.737240525807357</v>
+        <v>3.541045758196148</v>
       </c>
       <c r="B67" t="n">
-        <v>38.62067820643966</v>
+        <v>35.61770126494823</v>
       </c>
       <c r="C67" t="n">
-        <v>38.80236150445383</v>
+        <v>40.60048848854202</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01420996440109157</v>
+        <v>-0.05328438550452574</v>
       </c>
       <c r="E67" t="n">
-        <v>3.19300401730063</v>
+        <v>34</v>
       </c>
       <c r="F67" t="n">
-        <v>1.542686</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.73404763462586</v>
+        <v>3.594612467568817</v>
       </c>
       <c r="B68" t="n">
-        <v>41.7883452787592</v>
+        <v>33.80810599365161</v>
       </c>
       <c r="C68" t="n">
-        <v>38.3777172230802</v>
+        <v>42.98405467268497</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02327911192647925</v>
+        <v>-0.3220629835006932</v>
       </c>
       <c r="E68" t="n">
-        <v>3.19055865148642</v>
+        <v>22</v>
       </c>
       <c r="F68" t="n">
-        <v>1.53191</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.738762073328252</v>
+        <v>3.458337441995207</v>
       </c>
       <c r="B69" t="n">
-        <v>39.0017533952552</v>
+        <v>34.70482900918633</v>
       </c>
       <c r="C69" t="n">
-        <v>38.18974551714969</v>
+        <v>46.40938085216235</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1129830791852822</v>
+        <v>0.04862816448915908</v>
       </c>
       <c r="E69" t="n">
-        <v>3.194050203432545</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>1.573193</v>
+        <v>0.83919</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.745968421098063</v>
+        <v>3.702632126665974</v>
       </c>
       <c r="B70" t="n">
-        <v>36.24646571325303</v>
+        <v>35.53324091425026</v>
       </c>
       <c r="C70" t="n">
-        <v>37.45767186951273</v>
+        <v>47.91684624038901</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02854285453651606</v>
+        <v>-0.01480874172989566</v>
       </c>
       <c r="E70" t="n">
-        <v>3.208926494014533</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>1.560428</v>
+        <v>0.8686199999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.707645436915651</v>
+        <v>3.918327202823932</v>
       </c>
       <c r="B71" t="n">
-        <v>30.08216171666011</v>
+        <v>40.05639033799227</v>
       </c>
       <c r="C71" t="n">
-        <v>36.08307445807468</v>
+        <v>68.23013984268269</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1593185563710069</v>
+        <v>-0.1549042267628362</v>
       </c>
       <c r="E71" t="n">
-        <v>3.215771009914722</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>1.541806</v>
+        <v>0.88866</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.728503126142083</v>
+        <v>3.888069764405653</v>
       </c>
       <c r="B72" t="n">
-        <v>31.35315138247612</v>
+        <v>35.31200376835683</v>
       </c>
       <c r="C72" t="n">
-        <v>33.84191476394945</v>
+        <v>67.57673871163301</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1547582830190706</v>
+        <v>-0.03915470391265785</v>
       </c>
       <c r="E72" t="n">
-        <v>3.218495752649905</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>1.515795</v>
+        <v>0.83507</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.672038538312085</v>
+        <v>3.963286858754246</v>
       </c>
       <c r="B73" t="n">
-        <v>31.2950577265546</v>
+        <v>42.39532130737251</v>
       </c>
       <c r="C73" t="n">
-        <v>33.89274783724528</v>
+        <v>71.73247011676986</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1812697056989876</v>
+        <v>-0.03624921958681249</v>
       </c>
       <c r="E73" t="n">
-        <v>3.235359224126555</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>1.5429</v>
+        <v>0.85143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.651551266053632</v>
+        <v>3.996878872282418</v>
       </c>
       <c r="B74" t="n">
-        <v>29.34884898100276</v>
+        <v>43.06114398422091</v>
       </c>
       <c r="C74" t="n">
-        <v>33.11441171450391</v>
+        <v>67.29783037475345</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1437588458650794</v>
+        <v>-0.04752816055728104</v>
       </c>
       <c r="E74" t="n">
-        <v>3.23368561652168</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>1.503895</v>
+        <v>0.86365</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.497443707332006</v>
+        <v>3.75197839891211</v>
       </c>
       <c r="B75" t="n">
-        <v>25.57242327141568</v>
+        <v>43.20272905568859</v>
       </c>
       <c r="C75" t="n">
-        <v>31.92348024805773</v>
+        <v>61.33574983484858</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07651303062570136</v>
+        <v>-0.2566791627456695</v>
       </c>
       <c r="E75" t="n">
-        <v>3.221552240071609</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>1.481921</v>
+        <v>0.86336</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.425685699986357</v>
+        <v>3.655398335490486</v>
       </c>
       <c r="B76" t="n">
-        <v>21.65815413612348</v>
+        <v>40.33483857962809</v>
       </c>
       <c r="C76" t="n">
-        <v>32.27558800415795</v>
+        <v>58.01211518915302</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01484667380166371</v>
+        <v>0.01442071456734517</v>
       </c>
       <c r="E76" t="n">
-        <v>3.144755544946431</v>
+        <v>21</v>
       </c>
       <c r="F76" t="n">
-        <v>1.424603</v>
+        <v>0.8508</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.380953775385509</v>
+        <v>3.613200389728173</v>
       </c>
       <c r="B77" t="n">
-        <v>23.26116617007137</v>
+        <v>39.31130114439076</v>
       </c>
       <c r="C77" t="n">
-        <v>32.02205286930273</v>
+        <v>56.73873516347738</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2069840768163029</v>
+        <v>0.02721158732086693</v>
       </c>
       <c r="E77" t="n">
-        <v>3.105550339556078</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>1.386194</v>
+        <v>0.84339</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.330920538246188</v>
+        <v>3.581149779475888</v>
       </c>
       <c r="B78" t="n">
-        <v>26.52964102218528</v>
+        <v>38.03738962187015</v>
       </c>
       <c r="C78" t="n">
-        <v>31.20930028650166</v>
+        <v>57.85341099849315</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.08380143689930186</v>
+        <v>0.1130556125901592</v>
       </c>
       <c r="E78" t="n">
-        <v>3.113515309210374</v>
+        <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>1.437401</v>
+        <v>0.87645</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.351758304399346</v>
+        <v>3.556591928694224</v>
       </c>
       <c r="B79" t="n">
-        <v>28.38935629367245</v>
+        <v>34.50007898263715</v>
       </c>
       <c r="C79" t="n">
-        <v>31.23648509945922</v>
+        <v>58.77736121691471</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01237349240303409</v>
+        <v>0.2912050439481728</v>
       </c>
       <c r="E79" t="n">
-        <v>3.149504310276424</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>1.46171</v>
+        <v>0.87751</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.471075208959073</v>
+        <v>3.644802004847705</v>
       </c>
       <c r="B80" t="n">
-        <v>31.8097452629593</v>
+        <v>35.73756568016124</v>
       </c>
       <c r="C80" t="n">
-        <v>34.8110498545222</v>
+        <v>61.36865393715807</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06957480582750186</v>
+        <v>0.3623959284854905</v>
       </c>
       <c r="E80" t="n">
-        <v>3.146219106827927</v>
+        <v>26</v>
       </c>
       <c r="F80" t="n">
-        <v>1.463507</v>
+        <v>0.90271</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.541045758196148</v>
+        <v>3.76736470235595</v>
       </c>
       <c r="B81" t="n">
-        <v>35.61770126494823</v>
+        <v>38.54888779792802</v>
       </c>
       <c r="C81" t="n">
-        <v>40.60048848854202</v>
+        <v>65.35415890693213</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.05432617148076346</v>
+        <v>0.2192928654717576</v>
       </c>
       <c r="E81" t="n">
-        <v>3.085161558380415</v>
+        <v>33</v>
       </c>
       <c r="F81" t="n">
-        <v>1.346584</v>
+        <v>0.91644</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.594612467568817</v>
+        <v>3.816751249477354</v>
       </c>
       <c r="B82" t="n">
-        <v>33.80810599365161</v>
+        <v>40.26242253952682</v>
       </c>
       <c r="C82" t="n">
-        <v>42.98405467268497</v>
+        <v>65.53847587021819</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.322981457970938</v>
+        <v>-0.05637798700571395</v>
       </c>
       <c r="E82" t="n">
-        <v>3.083216455420444</v>
+        <v>31</v>
       </c>
       <c r="F82" t="n">
-        <v>1.321633</v>
+        <v>0.8817</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.458337441995207</v>
+        <v>3.878452327593289</v>
       </c>
       <c r="B83" t="n">
-        <v>34.70482900918633</v>
+        <v>41.77258060534776</v>
       </c>
       <c r="C83" t="n">
-        <v>46.40938085216235</v>
+        <v>68.85829666817888</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04788964050581512</v>
+        <v>-0.03662849982580063</v>
       </c>
       <c r="E83" t="n">
-        <v>3.085161558380415</v>
+        <v>21</v>
       </c>
       <c r="F83" t="n">
-        <v>1.309072</v>
+        <v>0.8875</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.702632126665974</v>
+        <v>3.992800845090975</v>
       </c>
       <c r="B84" t="n">
-        <v>35.53324091425026</v>
+        <v>44.68295927685014</v>
       </c>
       <c r="C84" t="n">
-        <v>47.91684624038901</v>
+        <v>66.05183104710585</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01530178957958128</v>
+        <v>-0.009864874245266719</v>
       </c>
       <c r="E84" t="n">
-        <v>3.104407290179647</v>
+        <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>1.296344</v>
+        <v>0.87925</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.918327202823932</v>
+        <v>3.985163602566889</v>
       </c>
       <c r="B85" t="n">
-        <v>40.05639033799227</v>
+        <v>45.40018145106108</v>
       </c>
       <c r="C85" t="n">
-        <v>68.23013984268269</v>
+        <v>66.86247011900869</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1550769245887693</v>
+        <v>-0.02935732394480617</v>
       </c>
       <c r="E85" t="n">
-        <v>3.139616143882569</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>1.221598</v>
+        <v>0.8879</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.888069764405653</v>
+        <v>3.847739879516073</v>
       </c>
       <c r="B86" t="n">
-        <v>35.31200376835683</v>
+        <v>46.7428251549737</v>
       </c>
       <c r="C86" t="n">
-        <v>67.57673871163301</v>
+        <v>60.62763656464453</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.03892252142650499</v>
+        <v>-0.1752165726027499</v>
       </c>
       <c r="E86" t="n">
-        <v>3.08981442691513</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>1.249219</v>
+        <v>0.8823</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.963286858754246</v>
+        <v>3.795264230547564</v>
       </c>
       <c r="B87" t="n">
-        <v>42.39532130737251</v>
+        <v>44.77813118773858</v>
       </c>
       <c r="C87" t="n">
-        <v>71.73247011676986</v>
+        <v>55.90411203858054</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0355178621658645</v>
+        <v>-0.4820051944859411</v>
       </c>
       <c r="E87" t="n">
-        <v>3.162897890458744</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>1.234004</v>
+        <v>0.8923</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.996878872282418</v>
+        <v>3.808987826406318</v>
       </c>
       <c r="B88" t="n">
-        <v>43.06114398422091</v>
+        <v>44.85712729779394</v>
       </c>
       <c r="C88" t="n">
-        <v>67.29783037475345</v>
+        <v>54.01608028134835</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.04619371435848763</v>
+        <v>-0.3979335628152718</v>
       </c>
       <c r="E88" t="n">
-        <v>3.131857175124852</v>
+        <v>14</v>
       </c>
       <c r="F88" t="n">
-        <v>1.25</v>
+        <v>0.8818</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.75197839891211</v>
+        <v>3.91939613647641</v>
       </c>
       <c r="B89" t="n">
-        <v>43.20272905568859</v>
+        <v>49.68064193435659</v>
       </c>
       <c r="C89" t="n">
-        <v>61.33574983484858</v>
+        <v>58.69908047160147</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.2546285518040285</v>
+        <v>-0.01233370803500122</v>
       </c>
       <c r="E89" t="n">
-        <v>3.127396298732689</v>
+        <v>19</v>
       </c>
       <c r="F89" t="n">
-        <v>1.243936</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.655398335490486</v>
+        <v>3.996447548583059</v>
       </c>
       <c r="B90" t="n">
-        <v>40.33483857962809</v>
+        <v>54.77441618484296</v>
       </c>
       <c r="C90" t="n">
-        <v>58.01211518915302</v>
+        <v>67.59638266510889</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01730889430992377</v>
+        <v>0.2618851048877957</v>
       </c>
       <c r="E90" t="n">
-        <v>3.107452523164399</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>1.247847</v>
+        <v>0.8741</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.613200389728173</v>
+        <v>3.955306995104984</v>
       </c>
       <c r="B91" t="n">
-        <v>39.31130114439076</v>
+        <v>53.24042384008099</v>
       </c>
       <c r="C91" t="n">
-        <v>56.73873516347738</v>
+        <v>68.68808881397358</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03106578638372781</v>
+        <v>-0.07608917564467532</v>
       </c>
       <c r="E91" t="n">
-        <v>3.103644530748386</v>
+        <v>32</v>
       </c>
       <c r="F91" t="n">
-        <v>1.293159</v>
+        <v>0.8861</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.581149779475888</v>
+        <v>4.013500756607619</v>
       </c>
       <c r="B92" t="n">
-        <v>38.03738962187015</v>
+        <v>53.42770211632432</v>
       </c>
       <c r="C92" t="n">
-        <v>57.85341099849315</v>
+        <v>68.43063260959518</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1180095228415627</v>
+        <v>-0.01245074812218583</v>
       </c>
       <c r="E92" t="n">
-        <v>3.119165980719189</v>
+        <v>18</v>
       </c>
       <c r="F92" t="n">
-        <v>1.280902</v>
+        <v>0.8909</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.556591928694224</v>
+        <v>4.153439892281486</v>
       </c>
       <c r="B93" t="n">
-        <v>34.50007898263715</v>
+        <v>52.34281303678694</v>
       </c>
       <c r="C93" t="n">
-        <v>58.77736121691471</v>
+        <v>70.65161169586986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2973951897308886</v>
+        <v>0.2865679906520455</v>
       </c>
       <c r="E93" t="n">
-        <v>3.121792073214724</v>
+        <v>24</v>
       </c>
       <c r="F93" t="n">
-        <v>1.301118</v>
+        <v>0.8969</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.644802004847705</v>
+        <v>4.254374467963222</v>
       </c>
       <c r="B94" t="n">
-        <v>35.73756568016124</v>
+        <v>56.79193594189832</v>
       </c>
       <c r="C94" t="n">
-        <v>61.36865393715807</v>
+        <v>72.09674717430748</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3699585704228792</v>
+        <v>0.02858802787519643</v>
       </c>
       <c r="E94" t="n">
-        <v>3.133339722761606</v>
+        <v>30</v>
       </c>
       <c r="F94" t="n">
-        <v>1.314492</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.76736470235595</v>
+        <v>4.157300294390141</v>
       </c>
       <c r="B95" t="n">
-        <v>38.54888779792802</v>
+        <v>59.75489079179788</v>
       </c>
       <c r="C95" t="n">
-        <v>65.35415890693213</v>
+        <v>71.93742560458944</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2283601316266637</v>
+        <v>-0.2561980289370744</v>
       </c>
       <c r="E95" t="n">
-        <v>3.162897890458744</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>1.292056</v>
+        <v>0.8776</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.816751249477354</v>
+        <v>4.145061366483607</v>
       </c>
       <c r="B96" t="n">
-        <v>40.26242253952682</v>
+        <v>47.33408061480063</v>
       </c>
       <c r="C96" t="n">
-        <v>65.53847587021819</v>
+        <v>64.62289924862355</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.04568282778218702</v>
+        <v>-0.1339631672149952</v>
       </c>
       <c r="E96" t="n">
-        <v>3.199958006013556</v>
+        <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>1.339674</v>
+        <v>0.8872</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.878452327593289</v>
+        <v>4.043427955769432</v>
       </c>
       <c r="B97" t="n">
-        <v>41.77258060534776</v>
+        <v>42.19252800958254</v>
       </c>
       <c r="C97" t="n">
-        <v>68.85829666817888</v>
+        <v>63.77427089314516</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02419670493562975</v>
+        <v>-0.07216009068213758</v>
       </c>
       <c r="E97" t="n">
-        <v>3.207551951136757</v>
+        <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>1.321248</v>
+        <v>0.8956</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.992800845090975</v>
+        <v>3.880874982436287</v>
       </c>
       <c r="B98" t="n">
-        <v>44.68295927685014</v>
+        <v>42.60754112541403</v>
       </c>
       <c r="C98" t="n">
-        <v>66.05183104710585</v>
+        <v>56.69291577114929</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004391088181963099</v>
+        <v>-0.1108789662578236</v>
       </c>
       <c r="E98" t="n">
-        <v>3.213038822667568</v>
+        <v>12</v>
       </c>
       <c r="F98" t="n">
-        <v>1.341724</v>
+        <v>0.8751</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.985163602566889</v>
+        <v>3.720898773578845</v>
       </c>
       <c r="B99" t="n">
-        <v>45.40018145106108</v>
+        <v>44.9666325651424</v>
       </c>
       <c r="C99" t="n">
-        <v>66.86247011900869</v>
+        <v>52.76337983136236</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.01321864270952489</v>
+        <v>-0.08562278927897005</v>
       </c>
       <c r="E99" t="n">
-        <v>3.234355395716587</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>1.351607</v>
+        <v>0.8612</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.847739879516073</v>
+        <v>3.476484009173438</v>
       </c>
       <c r="B100" t="n">
-        <v>46.7428251549737</v>
+        <v>47.38468458073778</v>
       </c>
       <c r="C100" t="n">
-        <v>60.62763656464453</v>
+        <v>50.43667666289598</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1571745118643531</v>
+        <v>0.1197739150808221</v>
       </c>
       <c r="E100" t="n">
-        <v>3.27535067179618</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>1.415588</v>
+        <v>0.8612</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.795264230547564</v>
+        <v>3.443059727023067</v>
       </c>
       <c r="B101" t="n">
-        <v>44.77813118773858</v>
+        <v>51.18827997396028</v>
       </c>
       <c r="C101" t="n">
-        <v>55.90411203858054</v>
+        <v>42.43532124754113</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.4620870708010756</v>
+        <v>0.1729809635697368</v>
       </c>
       <c r="E101" t="n">
-        <v>3.303235355485939</v>
+        <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>1.390608</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.808987826406318</v>
+        <v>3.240693538759708</v>
       </c>
       <c r="B102" t="n">
-        <v>44.85712729779394</v>
+        <v>52.4185659534226</v>
       </c>
       <c r="C102" t="n">
-        <v>54.01608028134835</v>
+        <v>41.74669862807632</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.37622594628027</v>
+        <v>0.07058772630864318</v>
       </c>
       <c r="E102" t="n">
-        <v>3.401663939473798</v>
+        <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>1.401699</v>
+        <v>0.88271</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.91939613647641</v>
+        <v>3.168508885340781</v>
       </c>
       <c r="B103" t="n">
-        <v>49.68064193435659</v>
+        <v>46.87942593618664</v>
       </c>
       <c r="C103" t="n">
-        <v>58.69908047160147</v>
+        <v>35.6596069290364</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01100512888681848</v>
+        <v>-0.1746534971219411</v>
       </c>
       <c r="E103" t="n">
-        <v>3.417398761000163</v>
+        <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>1.377107</v>
+        <v>0.8971</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.996447548583059</v>
+        <v>3.317130523688893</v>
       </c>
       <c r="B104" t="n">
-        <v>54.77441618484296</v>
+        <v>48.71072644336467</v>
       </c>
       <c r="C104" t="n">
-        <v>67.59638266510889</v>
+        <v>44.1231392532981</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2866116201057896</v>
+        <v>-0.1934327878954143</v>
       </c>
       <c r="E104" t="n">
-        <v>3.459969307905389</v>
+        <v>24</v>
       </c>
       <c r="F104" t="n">
-        <v>1.328356</v>
+        <v>0.91369</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.955306995104984</v>
+        <v>3.416758336385244</v>
       </c>
       <c r="B105" t="n">
-        <v>53.24042384008099</v>
+        <v>44.79415528775246</v>
       </c>
       <c r="C105" t="n">
-        <v>68.68808881397358</v>
+        <v>41.72897257497265</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.05031838062156169</v>
+        <v>0.07047157144596738</v>
       </c>
       <c r="E105" t="n">
-        <v>3.46927650247275</v>
+        <v>22</v>
       </c>
       <c r="F105" t="n">
-        <v>1.321004</v>
+        <v>0.90749</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4.013500756607619</v>
+        <v>3.683797438094238</v>
       </c>
       <c r="B106" t="n">
-        <v>53.42770211632432</v>
+        <v>47.10569698571035</v>
       </c>
       <c r="C106" t="n">
-        <v>68.43063260959518</v>
+        <v>45.65871313751011</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01390561774257471</v>
+        <v>0.4309182260075417</v>
       </c>
       <c r="E106" t="n">
-        <v>3.541509897081837</v>
+        <v>25</v>
       </c>
       <c r="F106" t="n">
-        <v>1.313543</v>
+        <v>0.88779</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.153439892281486</v>
+        <v>3.673057811838736</v>
       </c>
       <c r="B107" t="n">
-        <v>52.34281303678694</v>
+        <v>42.73371660231135</v>
       </c>
       <c r="C107" t="n">
-        <v>70.65161169586986</v>
+        <v>40.36479009161547</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3129198011756635</v>
+        <v>0.3362035209815311</v>
       </c>
       <c r="E107" t="n">
-        <v>3.632309102625542</v>
+        <v>14</v>
       </c>
       <c r="F107" t="n">
-        <v>1.301101</v>
+        <v>0.8628</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.254374467963222</v>
+        <v>3.674023099164422</v>
       </c>
       <c r="B108" t="n">
-        <v>56.79193594189832</v>
+        <v>45.05650774642617</v>
       </c>
       <c r="C108" t="n">
-        <v>72.09674717430748</v>
+        <v>40.20229452457579</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05419726692690396</v>
+        <v>0.1511174834190463</v>
       </c>
       <c r="E108" t="n">
-        <v>3.663959003070355</v>
+        <v>11</v>
       </c>
       <c r="F108" t="n">
-        <v>1.303101</v>
+        <v>0.8512999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.157300294390141</v>
+        <v>3.354662736412533</v>
       </c>
       <c r="B109" t="n">
-        <v>59.75489079179788</v>
+        <v>47.30933000187371</v>
       </c>
       <c r="C109" t="n">
-        <v>71.93742560458944</v>
+        <v>37.25144094635725</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.2322337373175927</v>
+        <v>0.08446760111136342</v>
       </c>
       <c r="E109" t="n">
-        <v>3.520357246831413</v>
+        <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>1.27089</v>
+        <v>0.85145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.145061366483607</v>
+        <v>3.106714664762357</v>
       </c>
       <c r="B110" t="n">
-        <v>47.33408061480063</v>
+        <v>44.94327121205895</v>
       </c>
       <c r="C110" t="n">
-        <v>64.62289924862355</v>
+        <v>35.55213991401678</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1127265645920055</v>
+        <v>0.2053194630639812</v>
       </c>
       <c r="E110" t="n">
-        <v>3.621002031710851</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>1.278445</v>
+        <v>0.8398</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.043427955769432</v>
+        <v>2.99481103903467</v>
       </c>
       <c r="B111" t="n">
-        <v>42.19252800958254</v>
+        <v>39.98341603413743</v>
       </c>
       <c r="C111" t="n">
-        <v>63.77427089314516</v>
+        <v>34.33717726251831</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.05492926190612657</v>
+        <v>0.08501625699031123</v>
       </c>
       <c r="E111" t="n">
-        <v>3.715545727509939</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>1.269358</v>
+        <v>0.8606</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.880874982436287</v>
+        <v>2.71050268547063</v>
       </c>
       <c r="B112" t="n">
-        <v>42.60754112541403</v>
+        <v>23.82476221547585</v>
       </c>
       <c r="C112" t="n">
-        <v>56.69291577114929</v>
+        <v>36.69355755148264</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.09914061234212745</v>
+        <v>-0.1339273131501049</v>
       </c>
       <c r="E112" t="n">
-        <v>3.647927242782507</v>
+        <v>14</v>
       </c>
       <c r="F112" t="n">
-        <v>1.311716</v>
+        <v>0.87247</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.720898773578845</v>
+        <v>2.548148247334317</v>
       </c>
       <c r="B113" t="n">
-        <v>44.9666325651424</v>
+        <v>13.58307574479882</v>
       </c>
       <c r="C113" t="n">
-        <v>52.76337983136236</v>
+        <v>29.44970448477873</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.0810829966677602</v>
+        <v>-0.2423037922785483</v>
       </c>
       <c r="E113" t="n">
-        <v>3.630733788395303</v>
+        <v>16</v>
       </c>
       <c r="F113" t="n">
-        <v>1.331824</v>
+        <v>0.8908</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.476484009173438</v>
+        <v>2.183303238817611</v>
       </c>
       <c r="B114" t="n">
-        <v>47.38468458073778</v>
+        <v>21.93468039571104</v>
       </c>
       <c r="C114" t="n">
-        <v>50.43667666289598</v>
+        <v>28.74353966081944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1151823380413415</v>
+        <v>0.01249374670232228</v>
       </c>
       <c r="E114" t="n">
-        <v>3.6237274114772</v>
+        <v>13</v>
       </c>
       <c r="F114" t="n">
-        <v>1.304495</v>
+        <v>0.8953100000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.443059727023067</v>
+        <v>2.703743827175523</v>
       </c>
       <c r="B115" t="n">
-        <v>51.18827997396028</v>
+        <v>30.12129520205047</v>
       </c>
       <c r="C115" t="n">
-        <v>42.43532124754113</v>
+        <v>37.28697705046476</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1570956492609632</v>
+        <v>-0.2375791133708667</v>
       </c>
       <c r="E115" t="n">
-        <v>3.723172179271294</v>
+        <v>18</v>
       </c>
       <c r="F115" t="n">
-        <v>1.293243</v>
+        <v>0.89693</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.240693538759708</v>
+        <v>2.662737028266231</v>
       </c>
       <c r="B116" t="n">
-        <v>52.4185659534226</v>
+        <v>30.21330773437935</v>
       </c>
       <c r="C116" t="n">
-        <v>41.74669862807632</v>
+        <v>34.86688381002612</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04101961757522865</v>
+        <v>0.1061249213430937</v>
       </c>
       <c r="E116" t="n">
-        <v>3.681665999595634</v>
+        <v>16</v>
       </c>
       <c r="F116" t="n">
-        <v>1.26097</v>
+        <v>0.90007</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.168508885340781</v>
+        <v>3.283068982507261</v>
       </c>
       <c r="B117" t="n">
-        <v>46.87942593618664</v>
+        <v>30.84424444688882</v>
       </c>
       <c r="C117" t="n">
-        <v>35.6596069290364</v>
+        <v>36.46983753331289</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2205102186506505</v>
+        <v>-0.352576981808264</v>
       </c>
       <c r="E117" t="n">
-        <v>3.724608501568182</v>
+        <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>1.269599</v>
+        <v>0.8914</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.317130523688893</v>
+        <v>3.523823205793291</v>
       </c>
       <c r="B118" t="n">
-        <v>48.71072644336467</v>
+        <v>29.14358368628213</v>
       </c>
       <c r="C118" t="n">
-        <v>44.1231392532981</v>
+        <v>40.74830082755653</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2583822217374134</v>
+        <v>0.1058708791330147</v>
       </c>
       <c r="E118" t="n">
-        <v>3.762431914856904</v>
+        <v>15</v>
       </c>
       <c r="F118" t="n">
-        <v>1.21616</v>
+        <v>0.9054</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.416758336385244</v>
+        <v>3.638598720385719</v>
       </c>
       <c r="B119" t="n">
-        <v>44.79415528775246</v>
+        <v>28.44832425004436</v>
       </c>
       <c r="C119" t="n">
-        <v>41.72897257497265</v>
+        <v>39.67475924894218</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.01654429492370113</v>
+        <v>0.08403498106192409</v>
       </c>
       <c r="E119" t="n">
-        <v>3.72193940174026</v>
+        <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>1.215894</v>
+        <v>0.90305</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.683797438094238</v>
+        <v>3.691401523546646</v>
       </c>
       <c r="B120" t="n">
-        <v>47.10569698571035</v>
+        <v>29.40396531957886</v>
       </c>
       <c r="C120" t="n">
-        <v>45.65871313751011</v>
+        <v>42.11882125303929</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3187331795955792</v>
+        <v>0.3094273480794882</v>
       </c>
       <c r="E120" t="n">
-        <v>3.688279274041904</v>
+        <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>1.229317</v>
+        <v>0.90045</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3.673057811838736</v>
+        <v>3.9444582811813</v>
       </c>
       <c r="B121" t="n">
-        <v>42.73371660231135</v>
+        <v>33.58486550056143</v>
       </c>
       <c r="C121" t="n">
-        <v>40.36479009161547</v>
+        <v>46.35638566790836</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1956719046289113</v>
+        <v>0.35988480789897</v>
       </c>
       <c r="E121" t="n">
-        <v>3.700746264178771</v>
+        <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>1.290173</v>
+        <v>0.88442</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3.886940408546904</v>
+      </c>
+      <c r="B122" t="n">
+        <v>36.66107526699481</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45.38289032503648</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.2317714510955113</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.87918</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3.596520917587903</v>
+      </c>
+      <c r="B123" t="n">
+        <v>40.98007386678054</v>
+      </c>
+      <c r="C123" t="n">
+        <v>43.52652354347356</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.1925531651134413</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8626200000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3.756042498923811</v>
+      </c>
+      <c r="B124" t="n">
+        <v>43.49406025470682</v>
+      </c>
+      <c r="C124" t="n">
+        <v>46.5794056083506</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.09313344248690569</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.85026</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4.002117725751096</v>
+      </c>
+      <c r="B125" t="n">
+        <v>42.18830609624786</v>
+      </c>
+      <c r="C125" t="n">
+        <v>46.80356747909615</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.2331446552508432</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.86838</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4.003057566155239</v>
+      </c>
+      <c r="B126" t="n">
+        <v>43.61676070893436</v>
+      </c>
+      <c r="C126" t="n">
+        <v>59.31828539431904</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.2680093766802614</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.85624</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4.345775452390986</v>
+      </c>
+      <c r="B127" t="n">
+        <v>47.48496878598359</v>
+      </c>
+      <c r="C127" t="n">
+        <v>78.37356452853361</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.2398065395367031</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8546899999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4.5349250868174</v>
+      </c>
+      <c r="B128" t="n">
+        <v>48.574609113022</v>
+      </c>
+      <c r="C128" t="n">
+        <v>85.87954704164724</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.3302443917222195</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.84771</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4.735540924418148</v>
+      </c>
+      <c r="B129" t="n">
+        <v>45.86568450752073</v>
+      </c>
+      <c r="C129" t="n">
+        <v>99.67277728666163</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.001689911984465553</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.84915</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5.409276062118481</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49.35957760362223</v>
+      </c>
+      <c r="C130" t="n">
+        <v>144.8848388110082</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.1961883692192057</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.85139</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4.984353978871342</v>
+      </c>
+      <c r="B131" t="n">
+        <v>53.71711643123901</v>
+      </c>
+      <c r="C131" t="n">
+        <v>149.5964464654986</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.002178471080618749</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.84297</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5.33816771012907</v>
+      </c>
+      <c r="B132" t="n">
+        <v>53.16241861718383</v>
+      </c>
+      <c r="C132" t="n">
+        <v>72.87285266340683</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.124748128010129</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.8549</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4.998924944423349</v>
+      </c>
+      <c r="B133" t="n">
+        <v>47.73881418550426</v>
+      </c>
+      <c r="C133" t="n">
+        <v>88.53274762324538</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1373928685532082</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.8406</v>
       </c>
     </row>
   </sheetData>

--- a/export_normal_data.xlsx
+++ b/export_normal_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2673 +436,2783 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>temp_deviation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price_brent_gbp</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>price_gas</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>price_brent_gbp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>coal_gbp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>open_interest_gas_cycle</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>churn</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>eurgbp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4.054875552455332</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Feb 11</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>66.78590658778688</v>
+        <v>4.398333333333331</v>
       </c>
       <c r="C2" t="n">
-        <v>81.99471540253569</v>
+        <v>-0.2500000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240092658052264</v>
+        <v>-0.4400000000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>3.236353901989247</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8443000000000001</v>
+        <v>1.811145768846139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4.085793614094878</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 11</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>70.02226048977613</v>
+        <v>1.986666666666668</v>
       </c>
       <c r="C3" t="n">
-        <v>81.11429423299849</v>
+        <v>-0.52</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01433697509426324</v>
+        <v>0.47</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>7.33113836560166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8574000000000001</v>
+        <v>9.990262189946257</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4.241030199606556</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apr 11</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>77.35339885537779</v>
+        <v>-1.408333333333332</v>
       </c>
       <c r="C4" t="n">
-        <v>85.96321540627295</v>
+        <v>-0.6100000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1702179967001598</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>2.077868424853804</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8829</v>
+        <v>-7.365658719149465</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4.128967122387459</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>May 11</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>79.43126728023159</v>
+        <v>3.514999999999996</v>
       </c>
       <c r="C5" t="n">
-        <v>82.77580952576463</v>
+        <v>0.34</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3496965197916033</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>-4.760385959319905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89142</v>
+        <v>0.3487928610159017</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4.13456680519287</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>74.67088132091169</v>
+        <v>-2.996666666666668</v>
       </c>
       <c r="C6" t="n">
-        <v>79.32035962561409</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1932449840538144</v>
+        <v>-0.46</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>1.221876802092964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.88512</v>
+        <v>-1.058453883422729</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>4.11747616655528</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jul 11</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>75.89275812300465</v>
+        <v>-1.743333333333334</v>
       </c>
       <c r="C7" t="n">
-        <v>81.77323011320847</v>
+        <v>-0.1199999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05882775957014807</v>
+        <v>-0.1599999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>0.6993862468267338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.90324</v>
+        <v>-5.423365487674182</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>4.025007120583</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aug 11</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>76.59214436983139</v>
+        <v>-0.8216666666666637</v>
       </c>
       <c r="C8" t="n">
-        <v>81.0971794494624</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1489337928980277</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>-4.536713574304926</v>
       </c>
       <c r="F8" t="n">
-        <v>0.87573</v>
+        <v>16.5779279989579</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4.284394999048672</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sep 11</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>72.05543079552646</v>
+        <v>0.8283333333333367</v>
       </c>
       <c r="C9" t="n">
-        <v>82.24072939645463</v>
+        <v>-0.23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.268200147361382</v>
+        <v>-0.23</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>4.5649702867874</v>
       </c>
       <c r="F9" t="n">
-        <v>0.881</v>
+        <v>-2.113720140219002</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4.254831060498445</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Oct 11</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>76.62040108231386</v>
+        <v>1.961666666666668</v>
       </c>
       <c r="C10" t="n">
-        <v>83.2210418562223</v>
+        <v>0.26</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2226837887987578</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>-4.669811873651724</v>
       </c>
       <c r="F10" t="n">
-        <v>0.87071</v>
+        <v>0.2323334230113971</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>4.258123720225939</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nov 11</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>71.95058920866214</v>
+        <v>1.058333333333332</v>
       </c>
       <c r="C11" t="n">
-        <v>77.50040645022484</v>
+        <v>0.06999999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1794666687425721</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>3.118905985138298</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8618</v>
+        <v>-7.167734935176796</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4.151189717386139</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dec 11</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>75.06949519380044</v>
+        <v>0.1283333333333321</v>
       </c>
       <c r="C12" t="n">
-        <v>75.97084419269683</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1758907745651506</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>-1.491031788886474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.85856</v>
+        <v>-6.40120669685632</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>4.044949588483501</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jan 12</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>73.57846340491396</v>
+        <v>-1.256666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>75.16776367128504</v>
+        <v>0.2900000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04907965410029824</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>0.9091255421937774</v>
       </c>
       <c r="F13" t="n">
-        <v>0.83427</v>
+        <v>2.352580904044473</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4.085318751014788</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Feb 12</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>74.48758894710774</v>
+        <v>0.2483333333333322</v>
       </c>
       <c r="C14" t="n">
-        <v>69.2117492385042</v>
+        <v>0.47</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2719482478689699</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>4.320380970979414</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8307</v>
+        <v>2.978649379867193</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>4.13419868577236</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar 12</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>78.80796991808715</v>
+        <v>-2.363333333333332</v>
       </c>
       <c r="C15" t="n">
-        <v>64.49005499456308</v>
+        <v>-1.85</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07658388287395468</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>3.292105428512556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.833</v>
+        <v>2.025871475904211</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>4.166128782346322</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apr 12</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>82.10007534659971</v>
+        <v>3.091666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>64.79001561828116</v>
+        <v>0.96</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1057685596051172</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>-5.485015816282598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8347</v>
+        <v>-4.184158805031444</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>4.099021110106002</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>May 12</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>76.61505953031711</v>
+        <v>-3.185</v>
       </c>
       <c r="C17" t="n">
-        <v>58.31701608508064</v>
+        <v>-0.62</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05142801839129696</v>
+        <v>-0.3399999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>-2.302958697263321</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8047</v>
+        <v>-3.993450208550577</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>4.030477811688558</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>74.31210083305379</v>
+        <v>1.60333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>59.5358864749135</v>
+        <v>-0.27</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1225314705212508</v>
+        <v>-0.3200000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>-10.87276208242803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8085</v>
+        <v>1.900681883943243</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>4.063687425793237</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jul 12</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>63.43933875062576</v>
+        <v>-1.643333333333334</v>
       </c>
       <c r="C19" t="n">
-        <v>57.799397537613</v>
+        <v>0.15</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06809333156113695</v>
+        <v>-0.37</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>4.873798156374981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8069</v>
+        <v>-0.9813687046813726</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>4.046678243289417</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Aug 12</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>68.31313690700074</v>
+        <v>-0.3716666666666626</v>
       </c>
       <c r="C20" t="n">
-        <v>62.77459374712696</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005529029175404432</v>
+        <v>0.9799999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>6.39119622920721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.79236</v>
+        <v>4.093615437197144</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>4.11579172554544</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sep 12</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>74.70433313620795</v>
+        <v>2.028333333333332</v>
       </c>
       <c r="C21" t="n">
-        <v>61.88017714793514</v>
+        <v>0.68</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2182580996685086</v>
+        <v>-1.02</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>-2.265767647531035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7925</v>
+        <v>3.020515115407619</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>4.163889958068713</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oct 12</t>
+        </is>
       </c>
       <c r="B22" t="n">
-        <v>72.43856548867691</v>
+        <v>-1.03833333333333</v>
       </c>
       <c r="C22" t="n">
-        <v>57.44507895832521</v>
+        <v>-0.49</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1442390762409307</v>
+        <v>-0.24</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>-0.7944685296824758</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7953</v>
+        <v>4.070509054003537</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>4.225252241003615</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nov 12</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>71.64409695899444</v>
+        <v>-0.1166666666666689</v>
       </c>
       <c r="C23" t="n">
-        <v>54.83457425471332</v>
+        <v>0.42</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3115147644458247</v>
+        <v>0.38</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>-1.697612035897052</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8005</v>
+        <v>1.21730092062279</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>4.242894637874261</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dec 12</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>69.94648492309739</v>
+        <v>0.3533333333333344</v>
       </c>
       <c r="C24" t="n">
-        <v>57.40152577129301</v>
+        <v>0.2600000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02937540468635191</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>-0.5392385535179329</v>
       </c>
       <c r="F24" t="n">
-        <v>0.81096</v>
+        <v>-3.512742022532549</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>4.191112943113195</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jan 13</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>69.40724636957945</v>
+        <v>0.3433333333333337</v>
       </c>
       <c r="C25" t="n">
-        <v>57.02056636171042</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02868685131925908</v>
+        <v>-0.5400000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>4.231963052775896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8133</v>
+        <v>0.7831941888538125</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>4.202892577365512</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Feb 13</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>73.63920942235535</v>
+        <v>-1.051666666666669</v>
       </c>
       <c r="C26" t="n">
-        <v>56.09644095957577</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2450113413740826</v>
+        <v>-0.23</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>4.593689452444551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.869</v>
+        <v>1.965075112832466</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>4.231851511504509</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mar 13</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>78.2328988747999</v>
+        <v>-0.713333333333332</v>
       </c>
       <c r="C27" t="n">
-        <v>61.07626573077873</v>
+        <v>-0.96</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1723684836618453</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>-5.475087636062241</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8657</v>
+        <v>0.2176006704064406</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>4.235007279176584</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apr 13</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>72.75781123873766</v>
+        <v>-1.858333333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>57.28327721755505</v>
+        <v>-1.18</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.153763039576976</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>-5.624405604291269</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8426</v>
+        <v>-4.026576157573771</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>4.174934893613606</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>May 13</t>
+        </is>
       </c>
       <c r="B29" t="n">
-        <v>67.13340563444639</v>
+        <v>2.464999999999998</v>
       </c>
       <c r="C29" t="n">
-        <v>55.11833156979731</v>
+        <v>-0.06999999999999984</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03565528097016823</v>
+        <v>0.22</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>1.237127925537663</v>
       </c>
       <c r="F29" t="n">
-        <v>0.84239</v>
+        <v>1.086222121238734</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>4.191498910368359</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>68.37053355998405</v>
+        <v>-0.2966666666666686</v>
       </c>
       <c r="C30" t="n">
-        <v>54.69776012672281</v>
+        <v>-0.5400000000000003</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.005595665559473773</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>0.4916336276548208</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8549</v>
+        <v>0.022628336543562</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>4.191841073710729</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jul 13</t>
+        </is>
       </c>
       <c r="B31" t="n">
-        <v>68.86216718763887</v>
+        <v>0.5066666666666659</v>
       </c>
       <c r="C31" t="n">
-        <v>49.88024255575668</v>
+        <v>0.5600000000000002</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2587038944777547</v>
+        <v>-0.74</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>3.173164828552487</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8556</v>
+        <v>1.271617497456774</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>4.210883464935106</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Aug 13</t>
+        </is>
       </c>
       <c r="B32" t="n">
-        <v>72.03533201619136</v>
+        <v>3.228333333333339</v>
       </c>
       <c r="C32" t="n">
-        <v>50.95800610985093</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1447795245176131</v>
+        <v>-0.2</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>0.6518189334129261</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8686</v>
+        <v>-1.367441026322865</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>4.190391322485103</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sep 13</t>
+        </is>
       </c>
       <c r="B33" t="n">
-        <v>72.68715094960429</v>
+        <v>-1.421666666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>49.38127796360607</v>
+        <v>0.52</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1959730191347067</v>
+        <v>-0.14</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>-3.039053211994371</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8508</v>
+        <v>2.397381908299323</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>4.226045319610138</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oct 13</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>69.64809773760992</v>
+        <v>-1.188333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>51.54957771618798</v>
+        <v>-0.31</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1565299740173085</v>
+        <v>0.24</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>-0.9662023843944212</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8460299999999999</v>
+        <v>2.189707366296659</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>4.257535986701508</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nov 13</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>68.68189535321549</v>
+        <v>-0.6166666666666671</v>
       </c>
       <c r="C35" t="n">
-        <v>52.73293670546202</v>
+        <v>0.52</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00625481448972387</v>
+        <v>0.37</v>
       </c>
       <c r="E35" t="n">
-        <v>22</v>
+        <v>-2.300844933857235</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8473000000000001</v>
+        <v>1.531617216236455</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>4.278987571105358</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dec 13</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>66.38105041935826</v>
+        <v>0.05333333333333456</v>
       </c>
       <c r="C36" t="n">
-        <v>51.9766272881885</v>
+        <v>0.21</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01834717561759192</v>
+        <v>-0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>1.035748777682102</v>
       </c>
       <c r="F36" t="n">
-        <v>0.82933</v>
+        <v>-2.980591721725617</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>4.236809326766656</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jan 14</t>
+        </is>
       </c>
       <c r="B37" t="n">
-        <v>67.41679919704036</v>
+        <v>1.943333333333333</v>
       </c>
       <c r="C37" t="n">
-        <v>49.63741399890431</v>
+        <v>0.43</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01860692254424734</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="E37" t="n">
-        <v>11</v>
+        <v>-1.221135615451615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8283</v>
+        <v>-7.44937325057807</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>4.122889480711766</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Feb 14</t>
+        </is>
       </c>
       <c r="B38" t="n">
-        <v>66.19566358158875</v>
+        <v>0.548333333333332</v>
       </c>
       <c r="C38" t="n">
-        <v>50.93857944865135</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07415027536989172</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="E38" t="n">
-        <v>23</v>
+        <v>-0.6269076994797729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8207</v>
+        <v>-5.30521293335363</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>4.033039223007997</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mar 14</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>65.56875588210897</v>
+        <v>0.1866666666666674</v>
       </c>
       <c r="C39" t="n">
-        <v>46.42195664380716</v>
+        <v>-0.6599999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1387884253266609</v>
+        <v>0.15</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>-0.7983110405739922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.82334</v>
+        <v>-5.007887985564743</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>3.940110294815908</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Apr 14</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>64.77044484153498</v>
+        <v>-0.208333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>46.73379230983473</v>
+        <v>-0.53</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2350380174873568</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>26</v>
+        <v>-0.7840278230362969</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8260999999999999</v>
+        <v>-5.20049659467913</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>3.833494302585825</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>May 14</t>
+        </is>
       </c>
       <c r="B41" t="n">
-        <v>63.98641701849868</v>
+        <v>-0.03500000000000103</v>
       </c>
       <c r="C41" t="n">
-        <v>44.56366552745292</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.344673879871646</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>27</v>
+        <v>1.375010073138583</v>
       </c>
       <c r="F41" t="n">
-        <v>0.82201</v>
+        <v>-2.083776223776233</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>3.78736640082859</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jun 14</t>
+        </is>
       </c>
       <c r="B42" t="n">
-        <v>65.36142709163727</v>
+        <v>-1.146666666666668</v>
       </c>
       <c r="C42" t="n">
-        <v>44.60258056508933</v>
+        <v>-0.36</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0007356401026221704</v>
+        <v>-0.1899999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>0.140891682830798</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8133</v>
+        <v>-4.619041916167667</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>3.676831115597762</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jul 14</t>
+        </is>
       </c>
       <c r="B43" t="n">
-        <v>65.50231877446807</v>
+        <v>0.2066666666666652</v>
       </c>
       <c r="C43" t="n">
-        <v>42.88702803480378</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1159620765876213</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>-2.299597053233533</v>
       </c>
       <c r="F43" t="n">
-        <v>0.792</v>
+        <v>2.030593467719214</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>3.726934862398531</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Aug 14</t>
+        </is>
       </c>
       <c r="B44" t="n">
-        <v>63.20272172123453</v>
+        <v>0.9783333333333353</v>
       </c>
       <c r="C44" t="n">
-        <v>45.16594237454524</v>
+        <v>0.23</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05460281596949379</v>
+        <v>-0.07000000000000006</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>-2.080548946555332</v>
       </c>
       <c r="F44" t="n">
-        <v>0.79808</v>
+        <v>9.446452440464427</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>3.931786494546986</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sep 14</t>
+        </is>
       </c>
       <c r="B45" t="n">
-        <v>61.1221727746792</v>
+        <v>-2.821666666666665</v>
       </c>
       <c r="C45" t="n">
-        <v>46.28827079039036</v>
+        <v>0.13</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05046191259842914</v>
+        <v>-0.52</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>-1.52458057878777</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7916</v>
+        <v>4.625126616159498</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>4.018599132877639</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oct 14</t>
+        </is>
       </c>
       <c r="B46" t="n">
-        <v>59.59759219589143</v>
+        <v>2.661666666666667</v>
       </c>
       <c r="C46" t="n">
-        <v>44.31914879537914</v>
+        <v>-0.1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1234692629331953</v>
+        <v>-0.43</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>-5.175015818402429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7837</v>
+        <v>-1.768548934868704</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>3.986287482124376</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nov 14</t>
+        </is>
       </c>
       <c r="B47" t="n">
-        <v>54.422576377489</v>
+        <v>0.5083333333333346</v>
       </c>
       <c r="C47" t="n">
-        <v>45.34695972892684</v>
+        <v>0.34</v>
       </c>
       <c r="D47" t="n">
-        <v>0.11514759025515</v>
+        <v>0.55</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>-3.592892644560862</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7827</v>
+        <v>4.357206538481449</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>4.0640878808219</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dec 14</t>
+        </is>
       </c>
       <c r="B48" t="n">
-        <v>50.82968373292814</v>
+        <v>-0.3716666666666679</v>
       </c>
       <c r="C48" t="n">
-        <v>47.28491475155325</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06284494643602656</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>-10.8287059740268</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7965</v>
+        <v>-8.451548451548454</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>3.907216266752108</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jan 15</t>
+        </is>
       </c>
       <c r="B49" t="n">
-        <v>40.00097775890134</v>
+        <v>-1.256666666666666</v>
       </c>
       <c r="C49" t="n">
-        <v>42.83069081499301</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2456255399324441</v>
+        <v>0.02999999999999992</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>-8.08546565726887</v>
       </c>
       <c r="F49" t="n">
-        <v>0.78148</v>
+        <v>-3.576956779373702</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>3.832617892366723</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Feb 15</t>
+        </is>
       </c>
       <c r="B50" t="n">
-        <v>31.91551210163247</v>
+        <v>-0.4016666666666682</v>
       </c>
       <c r="C50" t="n">
-        <v>39.29296716030127</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1914023492020362</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>5.907891630700945</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7495000000000001</v>
+        <v>4.098124054309821</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>3.917635367323658</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mar 15</t>
+        </is>
       </c>
       <c r="B51" t="n">
-        <v>37.82340373233341</v>
+        <v>-0.713333333333332</v>
       </c>
       <c r="C51" t="n">
-        <v>40.23212307501212</v>
+        <v>-0.8400000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.04560715190103082</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>0.03044064019857018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7243000000000001</v>
+        <v>-4.253322782417612</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>3.829251737427041</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Apr 15</t>
+        </is>
       </c>
       <c r="B52" t="n">
-        <v>37.85384437253198</v>
+        <v>0.9916666666666663</v>
       </c>
       <c r="C52" t="n">
-        <v>39.85862840085001</v>
+        <v>-0.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.3179010382340781</v>
+        <v>-0.3199999999999998</v>
       </c>
       <c r="E52" t="n">
-        <v>27</v>
+        <v>0.7668338339076826</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7367</v>
+        <v>-4.046102270776295</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>3.737240525807357</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>May 15</t>
+        </is>
       </c>
       <c r="B53" t="n">
-        <v>38.62067820643966</v>
+        <v>0.714999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>38.80236150445383</v>
+        <v>-0.62</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01445579546743936</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>21</v>
+        <v>3.167667072319539</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7383999999999999</v>
+        <v>-0.1338301338301235</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>3.73404763462586</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jun 15</t>
+        </is>
       </c>
       <c r="B54" t="n">
-        <v>41.7883452787592</v>
+        <v>-1.196666666666667</v>
       </c>
       <c r="C54" t="n">
-        <v>38.3777172230802</v>
+        <v>-0.38</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02293362961627032</v>
+        <v>-0.5</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>-2.786591883504002</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7154</v>
+        <v>0.1977563354808822</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>3.738762073328252</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jul 15</t>
+        </is>
       </c>
       <c r="B55" t="n">
-        <v>39.0017533952552</v>
+        <v>0.4066666666666645</v>
       </c>
       <c r="C55" t="n">
-        <v>38.18974551714969</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1125364678379661</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="E55" t="n">
-        <v>27</v>
+        <v>-2.755287682002169</v>
       </c>
       <c r="F55" t="n">
-        <v>0.71</v>
+        <v>0.3040918163672686</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>3.745968421098063</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Aug 15</t>
+        </is>
       </c>
       <c r="B56" t="n">
-        <v>36.24646571325303</v>
+        <v>-0.1716666666666633</v>
       </c>
       <c r="C56" t="n">
-        <v>37.45767186951273</v>
+        <v>-0.3200000000000002</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02799454924903699</v>
+        <v>0.37</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>-6.164303996592924</v>
       </c>
       <c r="F56" t="n">
-        <v>0.701</v>
+        <v>-1.592273180458619</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>3.707645436915651</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sep 15</t>
+        </is>
       </c>
       <c r="B57" t="n">
-        <v>30.08216171666011</v>
+        <v>-0.2216666666666676</v>
       </c>
       <c r="C57" t="n">
-        <v>36.08307445807468</v>
+        <v>1.01</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1599679284794195</v>
+        <v>-0.1599999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>22</v>
+        <v>1.270989665816018</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7289</v>
+        <v>0.8590396475244901</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>3.728503126142083</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oct 15</t>
+        </is>
       </c>
       <c r="B58" t="n">
-        <v>31.35315138247612</v>
+        <v>-1.03833333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>33.84191476394945</v>
+        <v>-0.41</v>
       </c>
       <c r="D58" t="n">
-        <v>0.155506560116093</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>-0.05809365592152105</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7393</v>
+        <v>-2.284762479029979</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>3.672038538312085</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nov 15</t>
+        </is>
       </c>
       <c r="B59" t="n">
-        <v>31.2950577265546</v>
+        <v>2.083333333333332</v>
       </c>
       <c r="C59" t="n">
-        <v>33.89274783724528</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1821127853816265</v>
+        <v>-0.1099999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>23</v>
+        <v>-1.946208745551843</v>
       </c>
       <c r="F59" t="n">
-        <v>0.713827</v>
+        <v>-0.7976071784646095</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>3.651551266053632</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Dec 15</t>
+        </is>
       </c>
       <c r="B60" t="n">
-        <v>29.34884898100276</v>
+        <v>1.803333333333333</v>
       </c>
       <c r="C60" t="n">
-        <v>33.11441171450391</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1446902174864864</v>
+        <v>-0.52</v>
       </c>
       <c r="E60" t="n">
-        <v>23</v>
+        <v>-3.776425709587077</v>
       </c>
       <c r="F60" t="n">
-        <v>0.720825</v>
+        <v>-5.503489531405776</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>3.497443707332006</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jan 16</t>
+        </is>
       </c>
       <c r="B61" t="n">
-        <v>25.57242327141568</v>
+        <v>2.943333333333335</v>
       </c>
       <c r="C61" t="n">
-        <v>31.92348024805773</v>
+        <v>1.36</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07752324837036539</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>-3.914269135292201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7364000000000001</v>
+        <v>-2.287188685200682</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>3.425685699986357</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Feb 16</t>
+        </is>
       </c>
       <c r="B62" t="n">
-        <v>21.65815413612348</v>
+        <v>-4.551666666666669</v>
       </c>
       <c r="C62" t="n">
-        <v>32.27558800415795</v>
+        <v>-0.3199999999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01592277457816138</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>23</v>
+        <v>1.603012033947888</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7599</v>
+        <v>-1.344920997774445</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>3.380953775385509</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mar 16</t>
+        </is>
       </c>
       <c r="B63" t="n">
-        <v>23.26116617007137</v>
+        <v>-0.5133333333333319</v>
       </c>
       <c r="C63" t="n">
-        <v>32.02205286930273</v>
+        <v>-0.55</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2081089488712102</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>23</v>
+        <v>3.268474852113911</v>
       </c>
       <c r="F63" t="n">
-        <v>0.77345</v>
+        <v>-1.434725738902955</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>3.330920538246188</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Apr 16</t>
+        </is>
       </c>
       <c r="B64" t="n">
-        <v>26.52964102218528</v>
+        <v>-1.158333333333334</v>
       </c>
       <c r="C64" t="n">
-        <v>31.20930028650166</v>
+        <v>-0.1447257</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0826497265443944</v>
+        <v>0.02120860000000002</v>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>1.859715271487165</v>
       </c>
       <c r="F64" t="n">
-        <v>0.80071</v>
+        <v>0.5888223552894196</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>3.351758304399346</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>May 16</t>
+        </is>
       </c>
       <c r="B65" t="n">
-        <v>28.38935629367245</v>
+        <v>-0.3350000000000017</v>
       </c>
       <c r="C65" t="n">
-        <v>31.23648509945922</v>
+        <v>-0.8035403999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01122240099655869</v>
+        <v>0.2093957</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>3.420388969286851</v>
       </c>
       <c r="F65" t="n">
-        <v>0.785</v>
+        <v>3.618420529459005</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>3.471075208959073</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jun 16</t>
+        </is>
       </c>
       <c r="B66" t="n">
-        <v>31.8097452629593</v>
+        <v>1.903333333333332</v>
       </c>
       <c r="C66" t="n">
-        <v>34.8110498545222</v>
+        <v>-0.2356058</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07069157694812667</v>
+        <v>-0.8513188</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>3.807956001988934</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7889</v>
+        <v>2.331667366320019</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>3.541045758196148</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jul 16</t>
+        </is>
       </c>
       <c r="B67" t="n">
-        <v>35.61770126494823</v>
+        <v>-0.8433333333333355</v>
       </c>
       <c r="C67" t="n">
-        <v>40.60048848854202</v>
+        <v>0.23911295</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.05328438550452574</v>
+        <v>0.5331908999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>34</v>
+        <v>-1.809595271296622</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8375</v>
+        <v>1.898608349900591</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>3.594612467568817</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Aug 16</t>
+        </is>
       </c>
       <c r="B68" t="n">
-        <v>33.80810599365161</v>
+        <v>0.4283333333333381</v>
       </c>
       <c r="C68" t="n">
-        <v>42.98405467268497</v>
+        <v>0.4682491499999999</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.3220629835006932</v>
+        <v>-0.3174793</v>
       </c>
       <c r="E68" t="n">
-        <v>22</v>
+        <v>0.8967230155347252</v>
       </c>
       <c r="F68" t="n">
-        <v>0.845</v>
+        <v>-4.637467563302057</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>3.458337441995207</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sep 16</t>
+        </is>
       </c>
       <c r="B69" t="n">
-        <v>34.70482900918633</v>
+        <v>0.7783333333333324</v>
       </c>
       <c r="C69" t="n">
-        <v>46.40938085216235</v>
+        <v>-0.08659987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04862816448915908</v>
+        <v>0.5083301000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>0.8284119050639305</v>
       </c>
       <c r="F69" t="n">
-        <v>0.83919</v>
+        <v>8.78978412879535</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>3.702632126665974</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oct 16</t>
+        </is>
       </c>
       <c r="B70" t="n">
-        <v>35.53324091425026</v>
+        <v>1.111666666666666</v>
       </c>
       <c r="C70" t="n">
-        <v>47.91684624038901</v>
+        <v>0.01426896999999996</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01480874172989566</v>
+        <v>-0.9423284000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>4.523149423742005</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8686199999999999</v>
+        <v>9.762298510847081</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>3.918327202823932</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nov 16</t>
+        </is>
       </c>
       <c r="B71" t="n">
-        <v>40.05639033799227</v>
+        <v>-1.816666666666665</v>
       </c>
       <c r="C71" t="n">
-        <v>68.23013984268269</v>
+        <v>0.2288502</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1549042267628362</v>
+        <v>0.1084032</v>
       </c>
       <c r="E71" t="n">
-        <v>18</v>
+        <v>-4.744386569635438</v>
       </c>
       <c r="F71" t="n">
-        <v>0.88866</v>
+        <v>-1.499637486259559</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>3.888069764405653</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Dec 16</t>
+        </is>
       </c>
       <c r="B72" t="n">
-        <v>35.31200376835683</v>
+        <v>-1.496666666666666</v>
       </c>
       <c r="C72" t="n">
-        <v>67.57673871163301</v>
+        <v>-0.06597629999999996</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.03915470391265785</v>
+        <v>-0.03023799999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>15</v>
+        <v>7.083317539015681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.83507</v>
+        <v>3.813461393290787</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>3.963286858754246</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jan 17</t>
+        </is>
       </c>
       <c r="B73" t="n">
-        <v>42.39532130737251</v>
+        <v>1.993333333333333</v>
       </c>
       <c r="C73" t="n">
-        <v>71.73247011676986</v>
+        <v>0.7811064</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.03624921958681249</v>
+        <v>-0.0114822</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>0.6658226768483999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.85143</v>
+        <v>1.797978448918286</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>3.996878872282418</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Feb 17</t>
+        </is>
       </c>
       <c r="B74" t="n">
-        <v>43.06114398422091</v>
+        <v>-2.151666666666669</v>
       </c>
       <c r="C74" t="n">
-        <v>67.29783037475345</v>
+        <v>-0.6532066999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.04752816055728104</v>
+        <v>-0.05792420000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>0.1415850714676807</v>
       </c>
       <c r="F74" t="n">
-        <v>0.86365</v>
+        <v>-11.82271895712715</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>3.75197839891211</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Mar 17</t>
+        </is>
       </c>
       <c r="B75" t="n">
-        <v>43.20272905568859</v>
+        <v>2.636666666666668</v>
       </c>
       <c r="C75" t="n">
-        <v>61.33574983484858</v>
+        <v>-0.09234440000000005</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2566791627456695</v>
+        <v>0.5745140000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>-2.867890476060502</v>
       </c>
       <c r="F75" t="n">
-        <v>0.86336</v>
+        <v>-3.922362103150903</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>3.655398335490486</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Apr 17</t>
+        </is>
       </c>
       <c r="B76" t="n">
-        <v>40.33483857962809</v>
+        <v>1.191666666666666</v>
       </c>
       <c r="C76" t="n">
-        <v>58.01211518915302</v>
+        <v>0.2438348</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01442071456734517</v>
+        <v>0.1833402999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>-1.02353743523733</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8508</v>
+        <v>-1.598378724312035</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>3.613200389728173</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>May 17</t>
+        </is>
       </c>
       <c r="B77" t="n">
-        <v>39.31130114439076</v>
+        <v>-2.085</v>
       </c>
       <c r="C77" t="n">
-        <v>56.73873516347738</v>
+        <v>-0.3042177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02721158732086693</v>
+        <v>-0.2397712999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>-1.273911522520613</v>
       </c>
       <c r="F77" t="n">
-        <v>0.84339</v>
+        <v>-1.169736875527413</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>3.581149779475888</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jun 17</t>
+        </is>
       </c>
       <c r="B78" t="n">
-        <v>38.03738962187015</v>
+        <v>1.003333333333332</v>
       </c>
       <c r="C78" t="n">
-        <v>57.85341099849315</v>
+        <v>-0.3672456</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1130556125901592</v>
+        <v>-0.4273519000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>-3.537310639232999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.87645</v>
+        <v>-0.8712487899322312</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>3.556591928694224</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jul 17</t>
+        </is>
       </c>
       <c r="B79" t="n">
-        <v>34.50007898263715</v>
+        <v>0.6566666666666627</v>
       </c>
       <c r="C79" t="n">
-        <v>58.77736121691471</v>
+        <v>0.07121160000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2912050439481728</v>
+        <v>0.2458874</v>
       </c>
       <c r="E79" t="n">
-        <v>31</v>
+        <v>1.237486697524091</v>
       </c>
       <c r="F79" t="n">
-        <v>0.87751</v>
+        <v>3.231631358952995</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>3.644802004847705</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Aug 17</t>
+        </is>
       </c>
       <c r="B80" t="n">
-        <v>35.73756568016124</v>
+        <v>-1.72166666666666</v>
       </c>
       <c r="C80" t="n">
-        <v>61.36865393715807</v>
+        <v>0.09582810000000003</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3623959284854905</v>
+        <v>-0.06317270000000003</v>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>2.811322117766785</v>
       </c>
       <c r="F80" t="n">
-        <v>0.90271</v>
+        <v>4.990702155307609</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>3.76736470235595</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sep 17</t>
+        </is>
       </c>
       <c r="B81" t="n">
-        <v>38.54888779792802</v>
+        <v>-1.221666666666668</v>
       </c>
       <c r="C81" t="n">
-        <v>65.35415890693213</v>
+        <v>0.3796313</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2192928654717576</v>
+        <v>-0.1380471</v>
       </c>
       <c r="E81" t="n">
-        <v>33</v>
+        <v>1.713534741598799</v>
       </c>
       <c r="F81" t="n">
-        <v>0.91644</v>
+        <v>2.190396073139993</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>3.816751249477354</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oct 17</t>
+        </is>
       </c>
       <c r="B82" t="n">
-        <v>40.26242253952682</v>
+        <v>0.06166666666666742</v>
       </c>
       <c r="C82" t="n">
-        <v>65.53847587021819</v>
+        <v>-0.3607069</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.05637798700571395</v>
+        <v>-0.06463059999999998</v>
       </c>
       <c r="E82" t="n">
-        <v>31</v>
+        <v>1.510158065820931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8817</v>
+        <v>2.893036188073992</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>3.878452327593289</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nov 17</t>
+        </is>
       </c>
       <c r="B83" t="n">
-        <v>41.77258060534776</v>
+        <v>1.258333333333333</v>
       </c>
       <c r="C83" t="n">
-        <v>68.85829666817888</v>
+        <v>0.3898616</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03662849982580063</v>
+        <v>0.05886529999999995</v>
       </c>
       <c r="E83" t="n">
-        <v>21</v>
+        <v>2.910378671502386</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8875</v>
+        <v>5.857172741051741</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>3.992800845090975</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Dec 17</t>
+        </is>
       </c>
       <c r="B84" t="n">
-        <v>44.68295927685014</v>
+        <v>-0.9716666666666667</v>
       </c>
       <c r="C84" t="n">
-        <v>66.05183104710585</v>
+        <v>0.06679080000000009</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.009864874245266719</v>
+        <v>-0.07301669999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>0.7172221742109386</v>
       </c>
       <c r="F84" t="n">
-        <v>0.87925</v>
+        <v>-0.412411346871373</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>3.985163602566889</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jan 18</t>
+        </is>
       </c>
       <c r="B85" t="n">
-        <v>45.40018145106108</v>
+        <v>0.3433333333333337</v>
       </c>
       <c r="C85" t="n">
-        <v>66.86247011900869</v>
+        <v>-0.2247637000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02935732394480617</v>
+        <v>-0.0579462</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>1.342643703912621</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8879</v>
+        <v>-6.907116429074946</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>3.847739879516073</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Feb 18</t>
+        </is>
       </c>
       <c r="B86" t="n">
-        <v>46.7428251549737</v>
+        <v>1.448333333333331</v>
       </c>
       <c r="C86" t="n">
-        <v>60.62763656464453</v>
+        <v>0.4943944000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1752165726027499</v>
+        <v>0.1452652</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>-1.964693967235121</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8823</v>
+        <v>-2.396982712965098</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>3.795264230547564</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mar 18</t>
+        </is>
       </c>
       <c r="B87" t="n">
-        <v>44.77813118773858</v>
+        <v>-3.513333333333332</v>
       </c>
       <c r="C87" t="n">
-        <v>55.90411203858054</v>
+        <v>-0.03760370000000002</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4820051944859411</v>
+        <v>0.1315363</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>0.078996110055364</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8923</v>
+        <v>0.6147714376503686</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>3.808987826406318</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Apr 18</t>
+        </is>
       </c>
       <c r="B88" t="n">
-        <v>44.85712729779394</v>
+        <v>0.7916666666666674</v>
       </c>
       <c r="C88" t="n">
-        <v>54.01608028134835</v>
+        <v>-0.4706879</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3979335628152718</v>
+        <v>0.01732209999999995</v>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>4.823514636562649</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8818</v>
+        <v>5.265257070570165</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>3.91939613647641</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>May 18</t>
+        </is>
       </c>
       <c r="B89" t="n">
-        <v>49.68064193435659</v>
+        <v>2.714999999999997</v>
       </c>
       <c r="C89" t="n">
-        <v>58.69908047160147</v>
+        <v>0.04123910000000003</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01233370803500122</v>
+        <v>-0.2653715</v>
       </c>
       <c r="E89" t="n">
-        <v>19</v>
+        <v>5.093774250486369</v>
       </c>
       <c r="F89" t="n">
-        <v>0.887</v>
+        <v>4.034517886671715</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>3.996447548583059</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jun 18</t>
+        </is>
       </c>
       <c r="B90" t="n">
-        <v>54.77441618484296</v>
+        <v>0.3533333333333335</v>
       </c>
       <c r="C90" t="n">
-        <v>67.59638266510889</v>
+        <v>-0.3207085000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2618851048877957</v>
+        <v>-0.05289469999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>31</v>
+        <v>-1.533992344761977</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8741</v>
+        <v>-2.192816635160675</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>3.955306995104984</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jul 18</t>
+        </is>
       </c>
       <c r="B91" t="n">
-        <v>53.24042384008099</v>
+        <v>0.1566666666666627</v>
       </c>
       <c r="C91" t="n">
-        <v>68.68808881397358</v>
+        <v>-0.04859499999999994</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.07608917564467532</v>
+        <v>0.003984800000000011</v>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>0.1872782762433332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8861</v>
+        <v>3.128544423440452</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>4.013500756607619</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Aug 18</t>
+        </is>
       </c>
       <c r="B92" t="n">
-        <v>53.42770211632432</v>
+        <v>1.57833333333334</v>
       </c>
       <c r="C92" t="n">
-        <v>68.43063260959518</v>
+        <v>0.09586689999999998</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01245074812218583</v>
+        <v>-0.0005180000000000184</v>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>-1.084889079537383</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8909</v>
+        <v>8.312317509340858</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>4.153439892281486</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sep 18</t>
+        </is>
       </c>
       <c r="B93" t="n">
-        <v>52.34281303678694</v>
+        <v>-2.471666666666668</v>
       </c>
       <c r="C93" t="n">
-        <v>70.65161169586986</v>
+        <v>0.3029888</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2865679906520455</v>
+        <v>-0.0132101</v>
       </c>
       <c r="E93" t="n">
-        <v>24</v>
+        <v>4.449122905111381</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8969</v>
+        <v>6.760175814109175</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>4.254374467963222</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oct 18</t>
+        </is>
       </c>
       <c r="B94" t="n">
-        <v>56.79193594189832</v>
+        <v>-0.8383333333333329</v>
       </c>
       <c r="C94" t="n">
-        <v>72.09674717430748</v>
+        <v>-0.4158329</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02858802787519643</v>
+        <v>0.4878723</v>
       </c>
       <c r="E94" t="n">
-        <v>30</v>
+        <v>2.96295484989956</v>
       </c>
       <c r="F94" t="n">
-        <v>0.892</v>
+        <v>-6.513976342993196</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>4.157300294390141</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nov 18</t>
+        </is>
       </c>
       <c r="B95" t="n">
-        <v>59.75489079179788</v>
+        <v>0.4833333333333325</v>
       </c>
       <c r="C95" t="n">
-        <v>71.93742560458944</v>
+        <v>0.3244449</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.2561980289370744</v>
+        <v>0.6842655999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>-12.42081017699725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8776</v>
+        <v>-0.7772863036375881</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>4.145061366483607</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Dec 18</t>
+        </is>
       </c>
       <c r="B96" t="n">
-        <v>47.33408061480063</v>
+        <v>0.1533333333333342</v>
       </c>
       <c r="C96" t="n">
-        <v>64.62289924862355</v>
+        <v>0.1051818</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1339631672149952</v>
+        <v>0.06397439999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>17</v>
+        <v>-5.141552605218088</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8872</v>
+        <v>-6.100020070333422</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>4.043427955769432</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jan 19</t>
+        </is>
       </c>
       <c r="B97" t="n">
-        <v>42.19252800958254</v>
+        <v>1.293333333333333</v>
       </c>
       <c r="C97" t="n">
-        <v>63.77427089314516</v>
+        <v>0.311955</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.07216009068213758</v>
+        <v>0.1644558</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>0.415013115831492</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8956</v>
+        <v>-8.554871305687534</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>3.880874982436287</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Feb 19</t>
+        </is>
       </c>
       <c r="B98" t="n">
-        <v>42.60754112541403</v>
+        <v>-2.651666666666668</v>
       </c>
       <c r="C98" t="n">
-        <v>56.69291577114929</v>
+        <v>-0.05910129999999991</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1108789662578236</v>
+        <v>-0.2360510999999998</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>2.359091439728367</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8751</v>
+        <v>-7.16510582374103</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>3.720898773578845</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Mar 19</t>
+        </is>
       </c>
       <c r="B99" t="n">
-        <v>44.9666325651424</v>
+        <v>2.636666666666668</v>
       </c>
       <c r="C99" t="n">
-        <v>52.76337983136236</v>
+        <v>-0.05666110000000002</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.08562278927897005</v>
+        <v>0.2626001999999998</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>2.418052015595386</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8612</v>
+        <v>-8.955703734817455</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>3.476484009173438</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Apr 19</t>
+        </is>
       </c>
       <c r="B100" t="n">
-        <v>47.38468458073778</v>
+        <v>-0.3583333333333334</v>
       </c>
       <c r="C100" t="n">
-        <v>50.43667666289598</v>
+        <v>0.9843873</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1197739150808221</v>
+        <v>0.6397017000000003</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>3.803595393222501</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8612</v>
+        <v>-1.063266511482478</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>3.443059727023067</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>May 19</t>
+        </is>
       </c>
       <c r="B101" t="n">
-        <v>51.18827997396028</v>
+        <v>-1.285000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>42.43532124754113</v>
+        <v>-1.3832811</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1729809635697368</v>
+        <v>-0.1655993000000002</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>1.230285979462316</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8571</v>
+        <v>-5.731091365748952</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>3.240693538759708</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jun 19</t>
+        </is>
       </c>
       <c r="B102" t="n">
-        <v>52.4185659534226</v>
+        <v>-0.4966666666666679</v>
       </c>
       <c r="C102" t="n">
-        <v>41.74669862807632</v>
+        <v>0.07974690000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07058772630864318</v>
+        <v>-1.6538005</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
+        <v>-5.539140017235958</v>
       </c>
       <c r="F102" t="n">
-        <v>0.88271</v>
+        <v>-1.779425393883226</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>3.168508885340781</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jul 19</t>
+        </is>
       </c>
       <c r="B103" t="n">
-        <v>46.87942593618664</v>
+        <v>0.1566666666666663</v>
       </c>
       <c r="C103" t="n">
-        <v>35.6596069290364</v>
+        <v>-0.4847564</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1746534971219411</v>
+        <v>-0.007411600000000018</v>
       </c>
       <c r="E103" t="n">
-        <v>19</v>
+        <v>1.831300507178028</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8971</v>
+        <v>3.809082483781278</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>3.317130523688893</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Aug 19</t>
+        </is>
       </c>
       <c r="B104" t="n">
-        <v>48.71072644336467</v>
+        <v>1.228333333333335</v>
       </c>
       <c r="C104" t="n">
-        <v>44.1231392532981</v>
+        <v>-0.04866469999999995</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1934327878954143</v>
+        <v>-0.1315152</v>
       </c>
       <c r="E104" t="n">
-        <v>24</v>
+        <v>-3.91657115561221</v>
       </c>
       <c r="F104" t="n">
-        <v>0.91369</v>
+        <v>2.889386099607062</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>3.416758336385244</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sep 19</t>
+        </is>
       </c>
       <c r="B105" t="n">
-        <v>44.79415528775246</v>
+        <v>-0.1716666666666669</v>
       </c>
       <c r="C105" t="n">
-        <v>41.72897257497265</v>
+        <v>0.4616043999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07047157144596738</v>
+        <v>0.6656545</v>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>2.311541697957885</v>
       </c>
       <c r="F105" t="n">
-        <v>0.90749</v>
+        <v>9.326755318244423</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>3.683797438094238</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oct 19</t>
+        </is>
       </c>
       <c r="B106" t="n">
-        <v>47.10569698571035</v>
+        <v>-0.4383333333333308</v>
       </c>
       <c r="C106" t="n">
-        <v>45.65871313751011</v>
+        <v>-0.09718179999999996</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4309182260075417</v>
+        <v>0.9517684999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>25</v>
+        <v>-4.371980383398999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.88779</v>
+        <v>-0.4251205262732327</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>3.673057811838736</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nov 19</t>
+        </is>
       </c>
       <c r="B107" t="n">
-        <v>42.73371660231135</v>
+        <v>-0.5166666666666675</v>
       </c>
       <c r="C107" t="n">
-        <v>40.36479009161547</v>
+        <v>0.2448361999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3362035209815311</v>
+        <v>0.3480386000000002</v>
       </c>
       <c r="E107" t="n">
-        <v>14</v>
+        <v>2.322791144114824</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8628</v>
+        <v>0.03802375207968822</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>3.674023099164422</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Dec 19</t>
+        </is>
       </c>
       <c r="B108" t="n">
-        <v>45.05650774642617</v>
+        <v>-1.096666666666666</v>
       </c>
       <c r="C108" t="n">
-        <v>40.20229452457579</v>
+        <v>-0.09251319999999996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1511174834190463</v>
+        <v>0.2698939999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>11</v>
+        <v>2.252822255447541</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8512999999999999</v>
+        <v>-10.7741935483871</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>3.354662736412533</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jan 20</t>
+        </is>
       </c>
       <c r="B109" t="n">
-        <v>47.30933000187371</v>
+        <v>2.143333333333333</v>
       </c>
       <c r="C109" t="n">
-        <v>37.25144094635725</v>
+        <v>0.4980612</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08446760111136342</v>
+        <v>-2.4841485</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>-2.366058789814758</v>
       </c>
       <c r="F109" t="n">
-        <v>0.85145</v>
+        <v>-6.288440079388742</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>3.106714664762357</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Feb 20</t>
+        </is>
       </c>
       <c r="B110" t="n">
-        <v>44.94327121205895</v>
+        <v>0.798333333333332</v>
       </c>
       <c r="C110" t="n">
-        <v>35.55213991401678</v>
+        <v>0.02245259999999993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2053194630639812</v>
+        <v>0.054455</v>
       </c>
       <c r="E110" t="n">
-        <v>15</v>
+        <v>-4.959855177921526</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8398</v>
+        <v>-2.365920827333596</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>2.99481103903467</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Mar 20</t>
+        </is>
       </c>
       <c r="B111" t="n">
-        <v>39.98341603413743</v>
+        <v>-0.1133333333333333</v>
       </c>
       <c r="C111" t="n">
-        <v>34.33717726251831</v>
+        <v>-0.3646041999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.08501625699031123</v>
+        <v>-0.0525444</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>-16.15865381866158</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8606</v>
+        <v>-4.944751381215472</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>2.71050268547063</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Apr 20</t>
+        </is>
       </c>
       <c r="B112" t="n">
-        <v>23.82476221547585</v>
+        <v>-1.708333333333332</v>
       </c>
       <c r="C112" t="n">
-        <v>36.69355755148264</v>
+        <v>-0.7748028</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1339273131501049</v>
+        <v>2.1034365</v>
       </c>
       <c r="E112" t="n">
-        <v>14</v>
+        <v>-10.24168647067703</v>
       </c>
       <c r="F112" t="n">
-        <v>0.87247</v>
+        <v>-2.253422274274172</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>2.548148247334317</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>May 20</t>
+        </is>
       </c>
       <c r="B113" t="n">
-        <v>13.58307574479882</v>
+        <v>1.814999999999998</v>
       </c>
       <c r="C113" t="n">
-        <v>29.44970448477873</v>
+        <v>0.4660707</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.2423037922785483</v>
+        <v>-0.5262576999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>8.351604650912218</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8908</v>
+        <v>-3.907834101382488</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>2.183303238817611</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jun 20</t>
+        </is>
       </c>
       <c r="B114" t="n">
-        <v>21.93468039571104</v>
+        <v>-0.4966666666666661</v>
       </c>
       <c r="C114" t="n">
-        <v>28.74353966081944</v>
+        <v>-0.08658840000000004</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01249374670232228</v>
+        <v>-0.4323293000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>8.186614806339431</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8953100000000001</v>
+        <v>6.059967241218356</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>2.703743827175523</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jul 20</t>
+        </is>
       </c>
       <c r="B115" t="n">
-        <v>30.12129520205047</v>
+        <v>-0.7433333333333358</v>
       </c>
       <c r="C115" t="n">
-        <v>37.28697705046476</v>
+        <v>0.03438900000000003</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.2375791133708667</v>
+        <v>-0.5084055</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>0.09201253232887296</v>
       </c>
       <c r="F115" t="n">
-        <v>0.89693</v>
+        <v>-0.6000712340883787</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>2.662737028266231</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Aug 20</t>
+        </is>
       </c>
       <c r="B116" t="n">
-        <v>30.21330773437935</v>
+        <v>-1.071666666666662</v>
       </c>
       <c r="C116" t="n">
-        <v>34.86688381002612</v>
+        <v>0.1377744</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1061249213430937</v>
+        <v>0.1716134</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>0.6309367125094774</v>
       </c>
       <c r="F116" t="n">
-        <v>0.90007</v>
+        <v>12.32198651953957</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>3.283068982507261</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sep 20</t>
+        </is>
       </c>
       <c r="B117" t="n">
-        <v>30.84424444688882</v>
+        <v>2.378333333333334</v>
       </c>
       <c r="C117" t="n">
-        <v>36.46983753331289</v>
+        <v>0.2290082</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.352576981808264</v>
+        <v>-0.02742520000000004</v>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
+        <v>-1.700660760606695</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8914</v>
+        <v>7.256381949754648</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>3.523823205793291</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oct 20</t>
+        </is>
       </c>
       <c r="B118" t="n">
-        <v>29.14358368628213</v>
+        <v>-1.488333333333335</v>
       </c>
       <c r="C118" t="n">
-        <v>40.74830082755653</v>
+        <v>-0.4428010999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1058708791330147</v>
+        <v>-0.1047486999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>15</v>
+        <v>-0.6952594362377695</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9054</v>
+        <v>4.12465627864345</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>3.638598720385719</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Nov 20</t>
+        </is>
       </c>
       <c r="B119" t="n">
-        <v>28.44832425004436</v>
+        <v>-0.5166666666666675</v>
       </c>
       <c r="C119" t="n">
-        <v>39.67475924894218</v>
+        <v>0.3380284</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08403498106192409</v>
+        <v>0.6249219</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>0.9556410695344972</v>
       </c>
       <c r="F119" t="n">
-        <v>0.90305</v>
+        <v>2.062513309076088</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>3.691401523546646</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Dec 20</t>
+        </is>
       </c>
       <c r="B120" t="n">
-        <v>29.40396531957886</v>
+        <v>1.153333333333334</v>
       </c>
       <c r="C120" t="n">
-        <v>42.11882125303929</v>
+        <v>0.09066779999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3094273480794882</v>
+        <v>0.4435199999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>4.180900180982579</v>
       </c>
       <c r="F120" t="n">
-        <v>0.90045</v>
+        <v>11.54734154734155</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>3.9444582811813</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jan 21</t>
+        </is>
       </c>
       <c r="B121" t="n">
-        <v>33.58486550056143</v>
+        <v>-1.106666666666666</v>
       </c>
       <c r="C121" t="n">
-        <v>46.35638566790836</v>
+        <v>0.1756442000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.35988480789897</v>
+        <v>-0.8598753</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>3.076209766433372</v>
       </c>
       <c r="F121" t="n">
-        <v>0.88442</v>
+        <v>-2.886883758443389</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>3.886940408546904</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Feb 21</t>
+        </is>
       </c>
       <c r="B122" t="n">
-        <v>36.66107526699481</v>
+        <v>-1.351666666666668</v>
       </c>
       <c r="C122" t="n">
-        <v>45.38289032503648</v>
+        <v>0.2740749999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2317714510955113</v>
+        <v>0.9966338</v>
       </c>
       <c r="E122" t="n">
-        <v>7</v>
+        <v>4.318998599785736</v>
       </c>
       <c r="F122" t="n">
-        <v>0.87918</v>
+        <v>-12.29034048385876</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>3.596520917587903</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mar 21</t>
+        </is>
       </c>
       <c r="B123" t="n">
-        <v>40.98007386678054</v>
+        <v>1.536666666666667</v>
       </c>
       <c r="C123" t="n">
-        <v>43.52652354347356</v>
+        <v>-0.7748033999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1925531651134413</v>
+        <v>0.4239868</v>
       </c>
       <c r="E123" t="n">
-        <v>8</v>
+        <v>2.51398638792628</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8626200000000001</v>
+        <v>6.307666012597664</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>3.756042498923811</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Apr 21</t>
+        </is>
       </c>
       <c r="B124" t="n">
-        <v>43.49406025470682</v>
+        <v>0.04166666666666696</v>
       </c>
       <c r="C124" t="n">
-        <v>46.5794056083506</v>
+        <v>0.6550099</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.09313344248690569</v>
+        <v>-0.2093186</v>
       </c>
       <c r="E124" t="n">
-        <v>8</v>
+        <v>-1.30575415845896</v>
       </c>
       <c r="F124" t="n">
-        <v>0.85026</v>
+        <v>11.93510303911852</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>4.002117725751096</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>May 21</t>
+        </is>
       </c>
       <c r="B125" t="n">
-        <v>42.18830609624786</v>
+        <v>-2.685000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>46.80356747909615</v>
+        <v>-0.572943</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.2331446552508432</v>
+        <v>-0.6829486</v>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>1.428454612686501</v>
       </c>
       <c r="F125" t="n">
-        <v>0.86838</v>
+        <v>0.05144650252313454</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>4.003057566155239</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jun 21</t>
+        </is>
       </c>
       <c r="B126" t="n">
-        <v>43.61676070893436</v>
+        <v>0.6033333333333317</v>
       </c>
       <c r="C126" t="n">
-        <v>59.31828539431904</v>
+        <v>-0.0453356</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.2680093766802614</v>
+        <v>-0.4122199</v>
       </c>
       <c r="E126" t="n">
-        <v>9</v>
+        <v>3.868208077049225</v>
       </c>
       <c r="F126" t="n">
-        <v>0.85624</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>4.345775452390986</v>
-      </c>
-      <c r="B127" t="n">
-        <v>47.48496878598359</v>
-      </c>
-      <c r="C127" t="n">
-        <v>78.37356452853361</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-0.2398065395367031</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.8546899999999999</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>4.5349250868174</v>
-      </c>
-      <c r="B128" t="n">
-        <v>48.574609113022</v>
-      </c>
-      <c r="C128" t="n">
-        <v>85.87954704164724</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-0.3302443917222195</v>
-      </c>
-      <c r="E128" t="n">
-        <v>11</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.84771</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>4.735540924418148</v>
-      </c>
-      <c r="B129" t="n">
-        <v>45.86568450752073</v>
-      </c>
-      <c r="C129" t="n">
-        <v>99.67277728666163</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-0.001689911984465553</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.84915</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5.409276062118481</v>
-      </c>
-      <c r="B130" t="n">
-        <v>49.35957760362223</v>
-      </c>
-      <c r="C130" t="n">
-        <v>144.8848388110082</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.1961883692192057</v>
-      </c>
-      <c r="E130" t="n">
-        <v>11</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.85139</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>4.984353978871342</v>
-      </c>
-      <c r="B131" t="n">
-        <v>53.71711643123901</v>
-      </c>
-      <c r="C131" t="n">
-        <v>149.5964464654986</v>
-      </c>
-      <c r="D131" t="n">
-        <v>-0.002178471080618749</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.84297</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5.33816771012907</v>
-      </c>
-      <c r="B132" t="n">
-        <v>53.16241861718383</v>
-      </c>
-      <c r="C132" t="n">
-        <v>72.87285266340683</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.124748128010129</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.8549</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>4.998924944423349</v>
-      </c>
-      <c r="B133" t="n">
-        <v>47.73881418550426</v>
-      </c>
-      <c r="C133" t="n">
-        <v>88.53274762324538</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.1373928685532082</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.8406</v>
+        <v>22.3864989085342</v>
       </c>
     </row>
   </sheetData>
